--- a/00_서류 제출/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/00_서류 제출/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB9D81-FB14-40E1-8F00-3A18569AF1A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40496D6-BCC6-4AA5-A075-D19AEEAB206C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="7830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="393">
   <si>
     <t>WAY 퀘스트 기획 작업</t>
   </si>
@@ -281,9 +281,6 @@
 엄마 생성위치</t>
   </si>
   <si>
-    <t>전화 받기 작업을 수행하여 전화 받기</t>
-  </si>
-  <si>
     <t>자동 완료</t>
   </si>
   <si>
@@ -351,11 +348,6 @@
     <t>(수량)</t>
   </si>
   <si>
-    <t>배도 채웠고 일할 시간이다. 성심 캠프장 훈련구역에 가 작업을 받자.
-마크를 따라 이동하라.
-[훈련구역 NPC에 대한 설명]</t>
-  </si>
-  <si>
     <t>마크를 따라 캠프장 훈련구역의 우식에게 이동하여 대화</t>
   </si>
   <si>
@@ -374,17 +366,10 @@
     <t>노끈</t>
   </si>
   <si>
-    <t>희승에게 가서 남은 작업에 대해 물어보자.
-[날도 추워지는데 땔감을 구해 오거라. 너무 멀리 가진 말고..]</t>
-  </si>
-  <si>
     <t>캠프장 주거구역의 희승에게 이동하여 대화</t>
   </si>
   <si>
     <t>땔감 구해오기</t>
-  </si>
-  <si>
-    <t>성심 캠프장 밖으로 나가 땔감을 구하러 가자. 마크를 따라 이동하라.</t>
   </si>
   <si>
     <t>마크를 따라 캠프장 밖의 땔감이 위치한 지점으로 이동하여 상호작용</t>
@@ -411,14 +396,6 @@
   </si>
   <si>
     <t>각오</t>
-  </si>
-  <si>
-    <t>희승은 각오가 확실하다면 자신의 텐트를 방문하라고 한다.
-희승 텐트로 찾아가자.
-[주인공, 주변에서 헌터에 대해 물어보고 다닌다 하더구나.
-정말 헌터의 길을 걷고싶은 거냐?
-각오가 된다면 찾아오거라.
-이제 너에게 그 길을 알려주마.]</t>
   </si>
   <si>
     <t>성심 캠프장 주거구역_
@@ -550,10 +527,6 @@
     <t>차원을 넘어오는 소리</t>
   </si>
   <si>
-    <t>인근에서 몬스터가 차원을 넘어오는 것이 감시물을 통해 포착되었다.
-소리의 근원지로 이동하여 수색해보자. 마크를 따라 이동하라.</t>
-  </si>
-  <si>
     <t>셰르파</t>
   </si>
   <si>
@@ -584,12 +557,6 @@
   <si>
     <t>이세계인 간호에 필요한 재료2
 '독잠자리의 독'</t>
-  </si>
-  <si>
-    <t>희승이 이세계인을 돌보는 동안 필요한 재료를 구해야 한다.
-독잠자리의 독을 5개 수집해 오자.
-[젠장, 독잠자리한테 쏘여서 몸을 움짝달짝할 수가 없어!
-녀석의 독을 채취해서 무기에 대입해봐야겠어. 어서 가서 독잠자리의 독을 가져와달라구!]</t>
   </si>
   <si>
     <t>독잠자리</t>
@@ -734,10 +701,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Q_C01_01_03</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Q_C01_01_04</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -747,15 +710,6 @@
   </si>
   <si>
     <t>아이는 무사하다. 다시 엄마의 방으로 돌아가 무기를 챙긴 뒤 집 밖으로 탈출하자. (아이템 줍기 기능)를 통해 무기를 획득할 수 있다.</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>도심이 괴물들로 무척이나 혼란한 가운데 전화가 울려오고 있다. 전화를 받아
-무슨 일인지 알아보자. (전화 받기)를 통해 전화를 받을 수 있다.</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>불길한 전화벨소리</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -772,12 +726,6 @@
   </si>
   <si>
     <t>~4챕터까지의 퀘스트 작성 완료</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>고블린을 쓰러뜨렸지만.. 도망치려는 도중 고블린이 다시 일어섰다.
-희승에게 아이를 맡기고 다시 한 번 싸워야 한다.
-하지만…</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -829,27 +777,11 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>우식으로부터 노끈을 구해오는 작업을 받았다.
-노끈을 만드려면 낫이 필요하다.
-성심 캠프장 보급구역으로 이동하여 연수에게 가보자.
-마크를 따라 이동하라.
-[보급구역 NPC에 대한 설명]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>낫 놓고 기역자도 모른다</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>연수에게서 낫과 노끈을 얻었다. 우식에게 가져다주자.</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>노끈 전달</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>추위에 대한 대비</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -929,16 +861,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>연수를 찾아간 주인공.
-비리비리한 몸으로 몬스터를 사냥할 수 있겠냐고 오히려 구박을 받는다.
-근처 스테이지로 가서 장작을 5개 패오라는 지시를 받는다.
-[희승 아저씨의 말이 맞아.
-그런 몸으로 뭘 할 수 있겠어?
-적어도 이 정도는 할 수 있는 사람이라는 걸 증명해 와야지!
-자, 도끼를 줄테니 장작을 패 와보렴.]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Q_C03_00_00</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -984,18 +906,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Q_C03_01_03</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C03_01_04</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C03_01_05</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Q_C03_02_01</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1009,10 +919,6 @@
   </si>
   <si>
     <t>Q_C01_01_01 완료</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C01_01_02 완료</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -1099,10 +1005,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Q_C03_02_01 완료/N레벨 이상 도달</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Q_C04_01_01</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1168,10 +1070,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Q_C04_04_01 완료</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Q_C04_04_02 완료</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1209,12 +1107,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>이세계인은 여전히 말을 하지 통하지 않는다.
-희승의 텐트 안에 말이 통할만한 방법을 찾아보자.
-[아이템 줍기 : 물약 등]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>성심 캠프장 희승의 텐트 안</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1240,18 +1132,6 @@
   </si>
   <si>
     <t>Q_C03_01_02 완료</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C03_01_03 완료</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C03_01_04 완료</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C03_01_05 완료</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -1373,10 +1253,6 @@
   </si>
   <si>
     <t>Q_C01_01_03 활성화</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C01_01_04 활성화</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -1527,6 +1403,127 @@
   </si>
   <si>
     <t>햄스터가 주는 무기</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>배도 채웠고 일할 시간이다. 성심 캠프장 훈련구역에 가 작업을 받자.
+마크를 따라 이동하라.
+[훈련구역 NPC에 대한 설명]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_C04_04_01 완료 / 독잠자리한테 쏘인거 같아서 필요한데 독을 채취해서 해독제를 만들자</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세계인은 여전히 말을 하지 통하지 않는다.
+희승의 텐트 안에 말이 통할만한 방법을 찾아보자.
+[아이템 줍기 : 물병 등]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린을 쓰러뜨렸지만.. 도망치려는 도중 고블린 군단이 떼거지로 나타났다.
+희승에게 아이를 맡기고 시하는 희생을 결심한다.
+돌아갈 거라고 약속은 하였으나…
+지키지 못할 약속이 되어버리고 만다.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>우식으로부터 노끈을 구해오는 작업을 받았다.
+성심 캠프장 보급구역으로 이동하여 연수에게 가보자.
+마크를 따라 이동하라.
+[보급구역 NPC에 대한 설명]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수에게서 노끈을 얻었다. 우식에게 가져다주자.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움이 되고 싶어</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>점점 헌터가 하는 일에 대해 욕심이 생기는 주인공.
+조금 더 성심 캠프장에 도움이 되고 싶은 주인공은
+날이 추워져 땔감이 필요하다는 희승과 캠프장 주민의 이야기를 엿듣게 된다.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승 몰래 성심 캠프장 밖으로 나가 땔감을 구하러 가자. 마크를 따라 이동하라.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승은 각오가 확실하다면 자신의 텐트를 방문하라고 한다.
+희승 텐트로 찾아가자.
+[주인공, 연수가 너한테서 헌터의 자질이 보인다고 하더구나.
+정녕 헌터의 길을 걷고싶은 거냐?
+각오가 된다면 찾아오거라.
+이제 너에게 그 길을 알려주마.]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수를 찾아간 주인공.
+비리비리한 몸으로 몬스터를 사냥할 수 있겠냐고 오히려 구박을 받는다.
+근처 캠프장에서
+[희승 아저씨의 말이 맞아.
+그런 몸으로 뭘 할 수 있겠어?
+적어도 이 정도는 할 수 있는 사람이라는 걸 증명해 와야지!
+훈련 구역으로 가서 무거운 쇳덩이 무더기를 찾아서 가져와 봐.
+그 정도 근력이 있는지 시험해 보겠어.]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>인근에서 몬스터가 차원을 넘어오는 수상한 조짐을 성심 캠프장의 헌터가 발견하여 보고하였다.
+소리의 근원지로 이동하여 수색해보자. 마크를 따라 이동하라.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">무기도 얻었겠다, 본격적으로 무기를 활용하기 위한 무기술 수업에 들어가게 된 주인공. 얼마나 강해질지는 아무도 모른다..
+[페이드 아웃 - 페이드 인 으로 '2년 후' 출력] </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘의 차이가 느껴지십니까1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘의 차이가 느껴지십니까2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_C03_02_02</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_C03_03_01</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_C03_03_03</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_C03_03_02</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_C03_04_01</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2년 후, 충분히 강해진 것 같은 주인공.
+우식을 찾아가보자</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_C03_04_01 완료/N레벨 이상 도달</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승이 이세계인을 돌보는 동안 필요한 재료를 구해야 한다.
+독잠자리의 독을 5개 수집해 오자.
+[젠장, 쓰러진 그 사람은 아마 독잠자리에게 당했던 것 같아. 녀석의 독이 5개 정도 필요해. 해독제를 만들어야 하니 어서 빨리 독을 채취해 가져와주게!]</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2271,7 +2268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2494,84 +2491,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2582,15 +2501,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2611,6 +2521,93 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2620,14 +2617,23 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2931,14 +2937,14 @@
     </row>
     <row r="2" spans="1:26" ht="56.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2966,8 +2972,8 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="76"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2993,16 +2999,16 @@
     </row>
     <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="79"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3035,10 +3041,10 @@
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="79"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3073,10 +3079,10 @@
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="85"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3109,10 +3115,10 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="79"/>
+      <c r="G7" s="85"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3178,11 +3184,11 @@
         <v>23</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102" t="s">
+      <c r="F9" s="75"/>
+      <c r="G9" s="76" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="1"/>
@@ -31079,14 +31085,14 @@
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="103">
+      <c r="B2" s="77">
         <v>44164</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E2" s="24"/>
     </row>
@@ -32685,13 +32691,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB1001"/>
+  <dimension ref="A1:AB1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -32727,46 +32733,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="82" t="s">
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="82" t="s">
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="83"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="103"/>
       <c r="Z1" s="33"/>
       <c r="AA1" s="33"/>
-      <c r="AB1" s="88" t="s">
+      <c r="AB1" s="104" t="s">
         <v>46</v>
       </c>
     </row>
@@ -32783,7 +32789,7 @@
       <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="86"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="33" t="s">
         <v>58</v>
       </c>
@@ -32846,23 +32852,23 @@
       </c>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
-      <c r="AB2" s="89"/>
+      <c r="AB2" s="100"/>
     </row>
     <row r="3" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A3" s="97" t="s">
-        <v>292</v>
+      <c r="A3" s="95" t="s">
+        <v>273</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>63</v>
@@ -32929,37 +32935,37 @@
       <c r="AB3" s="36"/>
     </row>
     <row r="4" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A4" s="99"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="41" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
@@ -32977,14 +32983,14 @@
       <c r="AB4" s="36"/>
     </row>
     <row r="5" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A5" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="110" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>70</v>
@@ -32996,7 +33002,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>73</v>
@@ -33059,10 +33065,10 @@
       <c r="AB5" s="36"/>
     </row>
     <row r="6" spans="1:28" ht="42" customHeight="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="36" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>77</v>
@@ -33071,16 +33077,16 @@
         <v>71</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>76</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>61</v>
@@ -33116,7 +33122,7 @@
         <v>81</v>
       </c>
       <c r="U6" s="36" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="V6" s="36" t="s">
         <v>61</v>
@@ -33139,22 +33145,22 @@
       <c r="AB6" s="36"/>
     </row>
     <row r="7" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="36" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>82</v>
@@ -33175,7 +33181,7 @@
         <v>61</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O7" s="36" t="s">
         <v>61</v>
@@ -33190,13 +33196,13 @@
         <v>61</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="U7" s="36" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="V7" s="36" t="s">
         <v>61</v>
@@ -33218,26 +33224,26 @@
       </c>
       <c r="AB7" s="36"/>
     </row>
-    <row r="8" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A8" s="98"/>
-      <c r="B8" s="105"/>
+    <row r="8" spans="1:28" ht="48" customHeight="1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="36" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>66</v>
@@ -33255,7 +33261,7 @@
         <v>61</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>61</v>
@@ -33270,13 +33276,13 @@
         <v>61</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="39" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="V8" s="36" t="s">
         <v>61</v>
@@ -33299,160 +33305,160 @@
       <c r="AB8" s="36"/>
     </row>
     <row r="9" spans="1:28" ht="48" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="36" t="s">
         <v>216</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="E9" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="119" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+    </row>
+    <row r="10" spans="1:28" ht="63.75" customHeight="1">
+      <c r="A10" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="36" t="s">
+      <c r="F10" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="36" t="s">
+      <c r="N10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="Q10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="V9" s="36" t="s">
+      <c r="S10" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="V10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="36" t="s">
+      <c r="W10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="36" t="s">
+      <c r="X10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="36" t="s">
+      <c r="Y10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="Z9" s="41" t="s">
+      <c r="Z10" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AA9" s="36" t="s">
+      <c r="AA10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="36"/>
-    </row>
-    <row r="10" spans="1:28" ht="48" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="36"/>
       <c r="AB10" s="36"/>
     </row>
-    <row r="11" spans="1:28" ht="63.75" customHeight="1">
-      <c r="A11" s="90" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>93</v>
-      </c>
+    <row r="11" spans="1:28" ht="48.75" customHeight="1">
+      <c r="A11" s="106"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="36" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>61</v>
@@ -33467,7 +33473,7 @@
         <v>61</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="O11" s="36" t="s">
         <v>61</v>
@@ -33482,13 +33488,13 @@
         <v>61</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="V11" s="36" t="s">
         <v>61</v>
@@ -33510,29 +33516,29 @@
       </c>
       <c r="AB11" s="36"/>
     </row>
-    <row r="12" spans="1:28" ht="48.75" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="94"/>
+    <row r="12" spans="1:28" ht="45.75" customHeight="1">
+      <c r="A12" s="106"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="36" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>61</v>
@@ -33547,7 +33553,7 @@
         <v>61</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="O12" s="36" t="s">
         <v>61</v>
@@ -33562,19 +33568,19 @@
         <v>61</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" s="39" t="s">
         <v>100</v>
       </c>
+      <c r="T12" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="U12" s="36" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="V12" s="36" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="W12" s="36" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="X12" s="36" t="s">
         <v>61</v>
@@ -33590,44 +33596,36 @@
       </c>
       <c r="AB12" s="36"/>
     </row>
-    <row r="13" spans="1:28" ht="45.75" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="94"/>
+    <row r="13" spans="1:28" ht="43.5" customHeight="1">
+      <c r="A13" s="106"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="36" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>61</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="36" t="s">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c r="O13" s="36" t="s">
         <v>61</v>
@@ -33642,19 +33640,19 @@
         <v>61</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="V13" s="36" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="W13" s="36" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="X13" s="36" t="s">
         <v>61</v>
@@ -33670,36 +33668,44 @@
       </c>
       <c r="AB13" s="36"/>
     </row>
-    <row r="14" spans="1:28" ht="43.5" customHeight="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="94"/>
+    <row r="14" spans="1:28" ht="62.25" customHeight="1">
+      <c r="A14" s="106"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="36" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>105</v>
+      <c r="F14" s="119" t="s">
+        <v>374</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>290</v>
+        <v>260</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>322</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36" t="s">
-        <v>106</v>
+        <v>331</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>354</v>
       </c>
       <c r="O14" s="36" t="s">
         <v>61</v>
@@ -33720,13 +33726,13 @@
         <v>108</v>
       </c>
       <c r="U14" s="36" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="V14" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="W14" s="36" t="s">
-        <v>61</v>
+        <v>109</v>
+      </c>
+      <c r="W14" s="36">
+        <v>1</v>
       </c>
       <c r="X14" s="36" t="s">
         <v>61</v>
@@ -33742,29 +33748,29 @@
       </c>
       <c r="AB14" s="36"/>
     </row>
-    <row r="15" spans="1:28" ht="62.25" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="94"/>
+    <row r="15" spans="1:28" ht="55.5" customHeight="1">
+      <c r="A15" s="106"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="36" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="39" t="s">
-        <v>236</v>
+      <c r="F15" s="36" t="s">
+        <v>375</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="J15" s="36" t="s">
         <v>61</v>
@@ -33779,34 +33785,30 @@
         <v>61</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="V15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="W15" s="41" t="s">
         <v>61</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="T15" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U15" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="V15" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="W15" s="36">
-        <v>1</v>
       </c>
       <c r="X15" s="36" t="s">
         <v>61</v>
@@ -33822,29 +33824,29 @@
       </c>
       <c r="AB15" s="36"/>
     </row>
-    <row r="16" spans="1:28" ht="55.5" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="94"/>
+    <row r="16" spans="1:28" ht="40.5" customHeight="1">
+      <c r="A16" s="106"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="36" t="s">
-        <v>366</v>
+        <v>227</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>279</v>
+      <c r="F16" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>260</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>61</v>
@@ -33858,25 +33860,29 @@
       <c r="M16" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="39" t="s">
-        <v>381</v>
+      <c r="N16" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+        <v>61</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="S16" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="T16" s="36" t="s">
-        <v>108</v>
+        <v>83</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="V16" s="36" t="s">
         <v>61</v>
@@ -33898,29 +33904,29 @@
       </c>
       <c r="AB16" s="36"/>
     </row>
-    <row r="17" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="94"/>
+    <row r="17" spans="1:28" ht="36.75" customHeight="1">
+      <c r="A17" s="106"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="36" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>349</v>
+        <v>261</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>323</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>61</v>
@@ -33935,7 +33941,7 @@
         <v>61</v>
       </c>
       <c r="N17" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O17" s="36" t="s">
         <v>61</v>
@@ -33950,13 +33956,13 @@
         <v>61</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T17" s="39" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="V17" s="36" t="s">
         <v>61</v>
@@ -33978,11 +33984,11 @@
       </c>
       <c r="AB17" s="36"/>
     </row>
-    <row r="18" spans="1:28" ht="36.75" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="94"/>
+    <row r="18" spans="1:28" ht="75" customHeight="1">
+      <c r="A18" s="106"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="36" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>114</v>
@@ -33991,13 +33997,13 @@
         <v>71</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>66</v>
@@ -34014,8 +34020,8 @@
       <c r="M18" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="36" t="s">
-        <v>116</v>
+      <c r="N18" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="O18" s="36" t="s">
         <v>61</v>
@@ -34030,13 +34036,13 @@
         <v>61</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U18" s="36" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="V18" s="36" t="s">
         <v>61</v>
@@ -34058,116 +34064,84 @@
       </c>
       <c r="AB18" s="36"/>
     </row>
-    <row r="19" spans="1:28" ht="75" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="94"/>
+    <row r="19" spans="1:28" ht="72" customHeight="1">
+      <c r="A19" s="106"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="36" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="H19" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="T19" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="U19" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="V19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="W19" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="X19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z19" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA19" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="V19" s="36"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="36"/>
       <c r="AB19" s="36"/>
     </row>
-    <row r="20" spans="1:28" ht="72" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="94"/>
+    <row r="20" spans="1:28" ht="115.5" customHeight="1">
+      <c r="A20" s="106"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="36" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>349</v>
+      <c r="F20" s="119" t="s">
+        <v>380</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>322</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
@@ -34176,7 +34150,7 @@
       <c r="S20" s="36"/>
       <c r="T20" s="39"/>
       <c r="U20" s="36" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="V20" s="36"/>
       <c r="W20" s="41"/>
@@ -34186,838 +34160,788 @@
       <c r="AA20" s="36"/>
       <c r="AB20" s="36"/>
     </row>
-    <row r="21" spans="1:28" ht="93" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="94"/>
+    <row r="21" spans="1:28" ht="85.5" customHeight="1">
+      <c r="A21" s="107"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="36" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>255</v>
+      <c r="F21" s="119" t="s">
+        <v>379</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>347</v>
+        <v>265</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>324</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+        <v>300</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="N21" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="U21" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="V21" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="W21" s="41">
+        <v>1</v>
+      </c>
+      <c r="X21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="36"/>
+    </row>
+    <row r="22" spans="1:28" ht="69.75" customHeight="1">
+      <c r="A22" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+    </row>
+    <row r="23" spans="1:28" ht="38.25" customHeight="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="79">
+        <v>1</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="O23" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="T23" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="W23" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="X23" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y23" s="79">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA23" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB23" s="79"/>
+    </row>
+    <row r="24" spans="1:28" ht="38.25" customHeight="1">
+      <c r="A24" s="93"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="79" t="s">
         <v>383</v>
       </c>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="V21" s="36"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-    </row>
-    <row r="22" spans="1:28" ht="85.5" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="38" t="s">
+      <c r="E24" s="81"/>
+      <c r="F24" s="120" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+    </row>
+    <row r="25" spans="1:28" ht="38.25" customHeight="1">
+      <c r="A25" s="93"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="81"/>
+      <c r="F25" s="120" t="s">
+        <v>390</v>
+      </c>
+      <c r="G25" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+    </row>
+    <row r="26" spans="1:28" ht="67.5" customHeight="1">
+      <c r="A26" s="93"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="I22" s="36" t="s">
+      <c r="F26" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="T26" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="U26" s="82"/>
+      <c r="V26" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="W26" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="X26" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB26" s="79"/>
+    </row>
+    <row r="27" spans="1:28" ht="71.25" customHeight="1">
+      <c r="A27" s="93"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="O27" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="R27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="T27" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="82"/>
+      <c r="V27" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="W27" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="X27" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y27" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB27" s="79"/>
+    </row>
+    <row r="28" spans="1:28" ht="71.25" customHeight="1">
+      <c r="A28" s="93"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="H28" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="J22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="O22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="S22" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="T22" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="U22" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="V22" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="W22" s="41">
+      <c r="I28" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+    </row>
+    <row r="29" spans="1:28" ht="71.25" customHeight="1">
+      <c r="A29" s="94"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="I29" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+    </row>
+    <row r="30" spans="1:28" ht="54.75" customHeight="1">
+      <c r="A30" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="O30" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="46">
         <v>1</v>
       </c>
-      <c r="X22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z22" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB22" s="36"/>
-    </row>
-    <row r="23" spans="1:28" ht="69.75" customHeight="1">
-      <c r="A23" s="116" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="113" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="I23" s="108" t="s">
-        <v>322</v>
-      </c>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108" t="s">
-        <v>385</v>
-      </c>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
-    </row>
-    <row r="24" spans="1:28" ht="38.25" customHeight="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="107" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="I24" s="108" t="s">
-        <v>322</v>
-      </c>
-      <c r="J24" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="108">
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="T30" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="W30" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+    </row>
+    <row r="31" spans="1:28" ht="70.5" customHeight="1">
+      <c r="A31" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="O31" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="49">
         <v>1</v>
       </c>
-      <c r="L24" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" s="108" t="s">
-        <v>386</v>
-      </c>
-      <c r="O24" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="P24" s="108">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="R24" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="T24" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="W24" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="X24" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y24" s="108">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA24" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB24" s="108"/>
-    </row>
-    <row r="25" spans="1:28" ht="67.5" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="111" t="s">
-        <v>261</v>
-      </c>
-      <c r="E25" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>326</v>
-      </c>
-      <c r="H25" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="P25" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="R25" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="S25" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="T25" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="U25" s="111"/>
-      <c r="V25" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="W25" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="X25" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y25" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z25" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA25" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB25" s="108"/>
-    </row>
-    <row r="26" spans="1:28" ht="71.25" customHeight="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="G26" s="107" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="K26" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="111" t="s">
-        <v>387</v>
-      </c>
-      <c r="O26" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="P26" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q26" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="R26" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="S26" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="T26" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="U26" s="111"/>
-      <c r="V26" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="W26" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="X26" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y26" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z26" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA26" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB26" s="108"/>
-    </row>
-    <row r="27" spans="1:28" ht="71.25" customHeight="1">
-      <c r="A27" s="117"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="107" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>328</v>
-      </c>
-      <c r="H27" s="111" t="s">
-        <v>347</v>
-      </c>
-      <c r="I27" s="108" t="s">
-        <v>356</v>
-      </c>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="111" t="s">
-        <v>388</v>
-      </c>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="108"/>
-      <c r="AB27" s="108"/>
-    </row>
-    <row r="28" spans="1:28" ht="71.25" customHeight="1">
-      <c r="A28" s="118"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="107" t="s">
-        <v>268</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="107" t="s">
-        <v>329</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="I28" s="108" t="s">
-        <v>353</v>
-      </c>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="111" t="s">
-        <v>389</v>
-      </c>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="108"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="108"/>
-      <c r="AB28" s="108"/>
-    </row>
-    <row r="29" spans="1:28" ht="54.75" customHeight="1">
-      <c r="A29" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47" t="s">
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="T31" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="O29" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="P29" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="T29" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="W29" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-    </row>
-    <row r="30" spans="1:28" ht="70.5" customHeight="1">
-      <c r="A30" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="O30" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="P30" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="T30" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="W30" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="49"/>
-      <c r="AB30" s="49"/>
-    </row>
-    <row r="31" spans="1:28" ht="60" customHeight="1">
-      <c r="A31" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="O31" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="P31" s="46">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="W31" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
+      <c r="W31" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
     </row>
     <row r="32" spans="1:28" ht="60" customHeight="1">
       <c r="A32" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>287</v>
+        <v>269</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>150</v>
       </c>
       <c r="C32" s="46"/>
-      <c r="D32" s="55" t="s">
-        <v>159</v>
+      <c r="D32" s="52" t="s">
+        <v>151</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>289</v>
+        <v>389</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>271</v>
       </c>
       <c r="I32" s="46" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
       <c r="L32" s="46"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
+      <c r="N32" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="P32" s="46">
+        <v>10</v>
+      </c>
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="49"/>
+      <c r="S32" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="T32" s="49" t="s">
+        <v>99</v>
+      </c>
       <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="50"/>
+      <c r="V32" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="W32" s="50" t="s">
+        <v>103</v>
+      </c>
       <c r="X32" s="46"/>
       <c r="Y32" s="46"/>
       <c r="Z32" s="50"/>
       <c r="AA32" s="46"/>
       <c r="AB32" s="46"/>
     </row>
-    <row r="33" spans="1:28" ht="42.75" customHeight="1">
-      <c r="A33" s="97" t="s">
-        <v>291</v>
-      </c>
-      <c r="B33" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="M33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N33" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="O33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="T33" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="W33" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="X33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z33" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB33" s="36"/>
-    </row>
-    <row r="34" spans="1:28" ht="52.5" customHeight="1">
-      <c r="A34" s="98"/>
-      <c r="B34" s="94"/>
+    <row r="33" spans="1:28" ht="60" customHeight="1">
+      <c r="A33" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+    </row>
+    <row r="34" spans="1:28" ht="42.75" customHeight="1">
+      <c r="A34" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="108" t="s">
+        <v>156</v>
+      </c>
       <c r="C34" s="36" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>297</v>
+        <v>381</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>391</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="I34" s="36" t="s">
         <v>66</v>
@@ -35034,8 +34958,8 @@
       <c r="M34" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="39" t="s">
-        <v>167</v>
+      <c r="N34" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="O34" s="36" t="s">
         <v>61</v>
@@ -35050,17 +34974,17 @@
         <v>61</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="T34" s="39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="U34" s="36"/>
       <c r="V34" s="36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W34" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X34" s="36" t="s">
         <v>61</v>
@@ -35076,29 +35000,29 @@
       </c>
       <c r="AB34" s="36"/>
     </row>
-    <row r="35" spans="1:28" ht="58.5" customHeight="1">
-      <c r="A35" s="98"/>
-      <c r="B35" s="89"/>
+    <row r="35" spans="1:28" ht="52.5" customHeight="1">
+      <c r="A35" s="96"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="36" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E35" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="J35" s="36" t="s">
         <v>61</v>
@@ -35113,13 +35037,13 @@
         <v>61</v>
       </c>
       <c r="N35" s="39" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="Q35" s="36" t="s">
         <v>61</v>
@@ -35128,17 +35052,17 @@
         <v>61</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="T35" s="36" t="s">
-        <v>100</v>
+        <v>158</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="U35" s="36"/>
       <c r="V35" s="36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W35" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X35" s="36" t="s">
         <v>61</v>
@@ -35154,95 +35078,119 @@
       </c>
       <c r="AB35" s="36"/>
     </row>
-    <row r="36" spans="1:28" ht="73.5" customHeight="1">
-      <c r="A36" s="98"/>
-      <c r="B36" s="95" t="s">
-        <v>303</v>
-      </c>
+    <row r="36" spans="1:28" ht="58.5" customHeight="1">
+      <c r="A36" s="96"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>170</v>
+        <v>276</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>281</v>
       </c>
       <c r="E36" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="57" t="s">
-        <v>302</v>
+      <c r="F36" s="39" t="s">
+        <v>279</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="O36" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="P36" s="41">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="T36" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="41"/>
-    </row>
-    <row r="37" spans="1:28" ht="68.25" customHeight="1">
-      <c r="A37" s="98"/>
-      <c r="B37" s="94"/>
+        <v>278</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="S36" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="T36" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="W36" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z36" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB36" s="36"/>
+    </row>
+    <row r="37" spans="1:28" ht="73.5" customHeight="1">
+      <c r="A37" s="96"/>
+      <c r="B37" s="108" t="s">
+        <v>283</v>
+      </c>
       <c r="C37" s="36" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E37" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="57" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="O37" s="41" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="P37" s="41">
         <v>10</v>
@@ -35250,10 +35198,10 @@
       <c r="Q37" s="41"/>
       <c r="R37" s="41"/>
       <c r="S37" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T37" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
@@ -35264,39 +35212,39 @@
       <c r="AA37" s="36"/>
       <c r="AB37" s="41"/>
     </row>
-    <row r="38" spans="1:28" ht="66" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="94"/>
+    <row r="38" spans="1:28" ht="68.25" customHeight="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="36" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E38" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>310</v>
+      <c r="F38" s="121" t="s">
+        <v>392</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>371</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
       <c r="N38" s="57" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="O38" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="P38" s="41">
         <v>10</v>
@@ -35304,10 +35252,10 @@
       <c r="Q38" s="41"/>
       <c r="R38" s="41"/>
       <c r="S38" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T38" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U38" s="41"/>
       <c r="V38" s="41"/>
@@ -35318,39 +35266,39 @@
       <c r="AA38" s="36"/>
       <c r="AB38" s="41"/>
     </row>
-    <row r="39" spans="1:28" ht="65.25" customHeight="1">
-      <c r="A39" s="98"/>
-      <c r="B39" s="96"/>
+    <row r="39" spans="1:28" ht="66" customHeight="1">
+      <c r="A39" s="96"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="36" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="E39" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="57" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J39" s="41"/>
       <c r="K39" s="41"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
       <c r="N39" s="57" t="s">
-        <v>179</v>
+        <v>366</v>
       </c>
       <c r="O39" s="41" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P39" s="41">
         <v>10</v>
@@ -35358,10 +35306,10 @@
       <c r="Q39" s="41"/>
       <c r="R39" s="41"/>
       <c r="S39" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T39" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U39" s="41"/>
       <c r="V39" s="41"/>
@@ -35372,162 +35320,170 @@
       <c r="AA39" s="36"/>
       <c r="AB39" s="41"/>
     </row>
-    <row r="40" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A40" s="98"/>
-      <c r="B40" s="95" t="s">
-        <v>181</v>
-      </c>
+    <row r="40" spans="1:28" ht="65.25" customHeight="1">
+      <c r="A40" s="96"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="D40" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="57" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="I40" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="L40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="M40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="N40" s="41" t="s">
-        <v>393</v>
+        <v>105</v>
+      </c>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="O40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="R40" s="41" t="s">
-        <v>61</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="P40" s="41">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
       <c r="S40" s="41" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="T40" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="U40" s="57"/>
-      <c r="V40" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="W40" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="X40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z40" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA40" s="36" t="s">
-        <v>61</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="36"/>
       <c r="AB40" s="41"/>
     </row>
     <row r="41" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A41" s="98"/>
-      <c r="B41" s="94"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="108" t="s">
+        <v>174</v>
+      </c>
       <c r="C41" s="36" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E41" s="59" t="s">
         <v>71</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>319</v>
+        <v>176</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
+        <v>300</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M41" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="N41" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
+        <v>367</v>
+      </c>
+      <c r="O41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="R41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="S41" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="T41" s="41" t="s">
+        <v>178</v>
+      </c>
       <c r="U41" s="57"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="36"/>
+      <c r="V41" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="W41" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="X41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA41" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="AB41" s="41"/>
     </row>
     <row r="42" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A42" s="99"/>
-      <c r="B42" s="89"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="36" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E42" s="59" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="J42" s="41"/>
       <c r="K42" s="41"/>
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
       <c r="N42" s="41" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="O42" s="41"/>
       <c r="P42" s="41"/>
@@ -35544,88 +35500,58 @@
       <c r="AA42" s="36"/>
       <c r="AB42" s="41"/>
     </row>
-    <row r="43" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A43" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="43" t="s">
-        <v>355</v>
-      </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="O43" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="P43" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q43" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R43" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S43" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="T43" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="U43" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="V43" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="W43" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="X43" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y43" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z43" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA43" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB43" s="43"/>
-    </row>
-    <row r="44" spans="1:28" ht="49.5" customHeight="1">
+    <row r="43" spans="1:28" ht="61.5" customHeight="1">
+      <c r="A43" s="97"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="41"/>
+    </row>
+    <row r="44" spans="1:28" ht="44.25" customHeight="1">
       <c r="A44" s="43" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="C44" s="43" t="s">
         <v>61</v>
@@ -35637,37 +35563,29 @@
         <v>62</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>110</v>
+        <v>306</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>356</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K44" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="L44" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="M44" s="43" t="s">
-        <v>61</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
       <c r="N44" s="44" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="O44" s="43" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="P44" s="43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q44" s="43" t="s">
         <v>61</v>
@@ -35676,25 +35594,25 @@
         <v>61</v>
       </c>
       <c r="S44" s="43" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T44" s="43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="U44" s="44" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="V44" s="43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W44" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X44" s="43" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="Y44" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z44" s="43" t="s">
         <v>61</v>
@@ -35704,33 +35622,33 @@
       </c>
       <c r="AB44" s="43"/>
     </row>
-    <row r="45" spans="1:28" ht="52.5" customHeight="1">
-      <c r="A45" s="93" t="s">
-        <v>332</v>
-      </c>
-      <c r="B45" s="93" t="s">
-        <v>196</v>
+    <row r="45" spans="1:28" ht="49.5" customHeight="1">
+      <c r="A45" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>308</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>335</v>
+        <v>61</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="G45" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="43" t="s">
         <v>331</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>322</v>
       </c>
       <c r="J45" s="43" t="s">
         <v>61</v>
@@ -35744,14 +35662,14 @@
       <c r="M45" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N45" s="43" t="s">
-        <v>184</v>
+      <c r="N45" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="O45" s="43" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="P45" s="43" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="Q45" s="43" t="s">
         <v>61</v>
@@ -35765,20 +35683,20 @@
       <c r="T45" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="U45" s="43" t="s">
-        <v>198</v>
+      <c r="U45" s="44" t="s">
+        <v>187</v>
       </c>
       <c r="V45" s="43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W45" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X45" s="43" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="Y45" s="43" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="Z45" s="43" t="s">
         <v>61</v>
@@ -35788,29 +35706,33 @@
       </c>
       <c r="AB45" s="43"/>
     </row>
-    <row r="46" spans="1:28" ht="43.5" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
+    <row r="46" spans="1:28" ht="52.5" customHeight="1">
+      <c r="A46" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="B46" s="98" t="s">
+        <v>189</v>
+      </c>
       <c r="C46" s="43" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>71</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="G46" s="43" t="s">
-        <v>340</v>
+        <v>314</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>306</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="J46" s="43" t="s">
         <v>61</v>
@@ -35824,8 +35746,8 @@
       <c r="M46" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N46" s="44" t="s">
-        <v>201</v>
+      <c r="N46" s="43" t="s">
+        <v>177</v>
       </c>
       <c r="O46" s="43" t="s">
         <v>61</v>
@@ -35840,19 +35762,19 @@
         <v>61</v>
       </c>
       <c r="S46" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="T46" s="44" t="s">
-        <v>202</v>
+        <v>105</v>
+      </c>
+      <c r="T46" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="U46" s="43" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="V46" s="43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W46" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X46" s="43" t="s">
         <v>61</v>
@@ -35868,29 +35790,29 @@
       </c>
       <c r="AB46" s="43"/>
     </row>
-    <row r="47" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
+    <row r="47" spans="1:28" ht="43.5" customHeight="1">
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="43" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E47" s="42" t="s">
         <v>71</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="J47" s="43" t="s">
         <v>61</v>
@@ -35905,7 +35827,7 @@
         <v>61</v>
       </c>
       <c r="N47" s="44" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="O47" s="43" t="s">
         <v>61</v>
@@ -35920,19 +35842,19 @@
         <v>61</v>
       </c>
       <c r="S47" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T47" s="44" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="U47" s="43" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="V47" s="43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W47" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X47" s="43" t="s">
         <v>61</v>
@@ -35948,29 +35870,29 @@
       </c>
       <c r="AB47" s="43"/>
     </row>
-    <row r="48" spans="1:28" ht="24">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89"/>
+    <row r="48" spans="1:28" ht="44.25" customHeight="1">
+      <c r="A48" s="99"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="43" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E48" s="42" t="s">
         <v>71</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="J48" s="43" t="s">
         <v>61</v>
@@ -35984,8 +35906,8 @@
       <c r="M48" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N48" s="43" t="s">
-        <v>211</v>
+      <c r="N48" s="44" t="s">
+        <v>200</v>
       </c>
       <c r="O48" s="43" t="s">
         <v>61</v>
@@ -36000,63 +35922,113 @@
         <v>61</v>
       </c>
       <c r="S48" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="T48" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="U48" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="V48" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="W48" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="X48" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y48" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z48" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA48" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB48" s="43"/>
+    </row>
+    <row r="49" spans="1:28" ht="24">
+      <c r="A49" s="100"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="I49" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="M49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N49" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="R49" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="S49" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="T49" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="U49" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="T48" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="U48" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="V48" s="43" t="s">
+      <c r="V49" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="W49" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="X49" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="W48" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="X48" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y48" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z48" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA48" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB48" s="43"/>
-    </row>
-    <row r="49" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="64"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="65"/>
-      <c r="W49" s="65"/>
-      <c r="X49" s="65"/>
-      <c r="Y49" s="65"/>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="65"/>
-      <c r="AB49" s="66"/>
+      <c r="Y49" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z49" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA49" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB49" s="43"/>
     </row>
     <row r="50" spans="1:28" ht="16.5" customHeight="1">
       <c r="A50" s="61"/>
@@ -36449,24 +36421,24 @@
       <c r="AB62" s="66"/>
     </row>
     <row r="63" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
       <c r="S63" s="64"/>
       <c r="T63" s="65"/>
       <c r="U63" s="65"/>
@@ -37804,9 +37776,9 @@
       <c r="C108" s="64"/>
       <c r="D108" s="65"/>
       <c r="E108" s="67"/>
-      <c r="F108" s="68"/>
+      <c r="F108" s="64"/>
       <c r="G108" s="65"/>
-      <c r="H108" s="69"/>
+      <c r="H108" s="65"/>
       <c r="I108" s="65"/>
       <c r="J108" s="65"/>
       <c r="K108" s="65"/>
@@ -37818,8 +37790,8 @@
       <c r="Q108" s="65"/>
       <c r="R108" s="65"/>
       <c r="S108" s="64"/>
-      <c r="T108" s="69"/>
-      <c r="U108" s="69"/>
+      <c r="T108" s="65"/>
+      <c r="U108" s="65"/>
       <c r="V108" s="65"/>
       <c r="W108" s="65"/>
       <c r="X108" s="65"/>
@@ -37834,9 +37806,9 @@
       <c r="C109" s="64"/>
       <c r="D109" s="65"/>
       <c r="E109" s="67"/>
-      <c r="F109" s="64"/>
+      <c r="F109" s="68"/>
       <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
+      <c r="H109" s="69"/>
       <c r="I109" s="65"/>
       <c r="J109" s="65"/>
       <c r="K109" s="65"/>
@@ -37848,8 +37820,8 @@
       <c r="Q109" s="65"/>
       <c r="R109" s="65"/>
       <c r="S109" s="64"/>
-      <c r="T109" s="65"/>
-      <c r="U109" s="65"/>
+      <c r="T109" s="69"/>
+      <c r="U109" s="69"/>
       <c r="V109" s="65"/>
       <c r="W109" s="65"/>
       <c r="X109" s="65"/>
@@ -40829,34 +40801,34 @@
       <c r="AB208" s="66"/>
     </row>
     <row r="209" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A209" s="70"/>
-      <c r="B209" s="70"/>
-      <c r="C209" s="71"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="72"/>
-      <c r="F209" s="71"/>
-      <c r="G209" s="70"/>
-      <c r="H209" s="70"/>
-      <c r="I209" s="70"/>
-      <c r="J209" s="70"/>
-      <c r="K209" s="70"/>
-      <c r="L209" s="70"/>
-      <c r="M209" s="70"/>
-      <c r="N209" s="71"/>
-      <c r="O209" s="70"/>
-      <c r="P209" s="70"/>
-      <c r="Q209" s="70"/>
-      <c r="R209" s="70"/>
-      <c r="S209" s="71"/>
-      <c r="T209" s="70"/>
-      <c r="U209" s="70"/>
-      <c r="V209" s="70"/>
-      <c r="W209" s="70"/>
-      <c r="X209" s="70"/>
-      <c r="Y209" s="70"/>
-      <c r="Z209" s="70"/>
-      <c r="AA209" s="70"/>
-      <c r="AB209" s="73"/>
+      <c r="A209" s="65"/>
+      <c r="B209" s="65"/>
+      <c r="C209" s="64"/>
+      <c r="D209" s="65"/>
+      <c r="E209" s="67"/>
+      <c r="F209" s="64"/>
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="65"/>
+      <c r="K209" s="65"/>
+      <c r="L209" s="65"/>
+      <c r="M209" s="65"/>
+      <c r="N209" s="64"/>
+      <c r="O209" s="65"/>
+      <c r="P209" s="65"/>
+      <c r="Q209" s="65"/>
+      <c r="R209" s="65"/>
+      <c r="S209" s="64"/>
+      <c r="T209" s="65"/>
+      <c r="U209" s="65"/>
+      <c r="V209" s="65"/>
+      <c r="W209" s="65"/>
+      <c r="X209" s="65"/>
+      <c r="Y209" s="65"/>
+      <c r="Z209" s="65"/>
+      <c r="AA209" s="65"/>
+      <c r="AB209" s="66"/>
     </row>
     <row r="210" spans="1:28" ht="16.5" customHeight="1">
       <c r="A210" s="70"/>
@@ -64288,7 +64260,7 @@
       <c r="AA990" s="70"/>
       <c r="AB990" s="73"/>
     </row>
-    <row r="991" spans="1:28" ht="16.5">
+    <row r="991" spans="1:28" ht="16.5" customHeight="1">
       <c r="A991" s="70"/>
       <c r="B991" s="70"/>
       <c r="C991" s="71"/>
@@ -64378,7 +64350,7 @@
       <c r="AA993" s="70"/>
       <c r="AB993" s="73"/>
     </row>
-    <row r="994" spans="1:28" ht="15.75" customHeight="1">
+    <row r="994" spans="1:28" ht="16.5">
       <c r="A994" s="70"/>
       <c r="B994" s="70"/>
       <c r="C994" s="71"/>
@@ -64618,31 +64590,61 @@
       <c r="AA1001" s="70"/>
       <c r="AB1001" s="73"/>
     </row>
+    <row r="1002" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A1002" s="70"/>
+      <c r="B1002" s="70"/>
+      <c r="C1002" s="71"/>
+      <c r="D1002" s="70"/>
+      <c r="E1002" s="72"/>
+      <c r="F1002" s="71"/>
+      <c r="G1002" s="70"/>
+      <c r="H1002" s="70"/>
+      <c r="I1002" s="70"/>
+      <c r="J1002" s="70"/>
+      <c r="K1002" s="70"/>
+      <c r="L1002" s="70"/>
+      <c r="M1002" s="70"/>
+      <c r="N1002" s="71"/>
+      <c r="O1002" s="70"/>
+      <c r="P1002" s="70"/>
+      <c r="Q1002" s="70"/>
+      <c r="R1002" s="70"/>
+      <c r="S1002" s="71"/>
+      <c r="T1002" s="70"/>
+      <c r="U1002" s="70"/>
+      <c r="V1002" s="70"/>
+      <c r="W1002" s="70"/>
+      <c r="X1002" s="70"/>
+      <c r="Y1002" s="70"/>
+      <c r="Z1002" s="70"/>
+      <c r="AA1002" s="70"/>
+      <c r="AB1002" s="73"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="S1:Y1"/>
     <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B22:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="S1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00_서류 제출/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/00_서류 제출/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chltl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Yaho\00_서류 제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A88CA-6A29-4B66-974A-926BAC1D9A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="7836" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="7830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 작성 시 참고내용" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="539">
   <si>
     <t>WAY 퀘스트 기획 작업</t>
   </si>
@@ -280,9 +281,6 @@
 엄마 생성위치</t>
   </si>
   <si>
-    <t>전화 받기 작업을 수행하여 전화 받기</t>
-  </si>
-  <si>
     <t>자동 완료</t>
   </si>
   <si>
@@ -373,17 +371,10 @@
     <t>노끈</t>
   </si>
   <si>
-    <t>희승에게 가서 남은 작업에 대해 물어보자.
-[날도 추워지는데 땔감을 구해 오거라. 너무 멀리 가진 말고..]</t>
-  </si>
-  <si>
     <t>캠프장 주거구역의 희승에게 이동하여 대화</t>
   </si>
   <si>
     <t>땔감 구해오기</t>
-  </si>
-  <si>
-    <t>성심 캠프장 밖으로 나가 땔감을 구하러 가자. 마크를 따라 이동하라.</t>
   </si>
   <si>
     <t>마크를 따라 캠프장 밖의 땔감이 위치한 지점으로 이동하여 상호작용</t>
@@ -410,14 +401,6 @@
   </si>
   <si>
     <t>각오</t>
-  </si>
-  <si>
-    <t>희승은 각오가 확실하다면 자신의 텐트를 방문하라고 한다.
-희승 텐트로 찾아가자.
-[주인공, 주변에서 헌터에 대해 물어보고 다닌다 하더구나.
-정말 헌터의 길을 걷고싶은 거냐?
-각오가 된다면 찾아오거라.
-이제 너에게 그 길을 알려주마.]</t>
   </si>
   <si>
     <t>성심 캠프장 주거구역_
@@ -582,12 +565,6 @@
 '독잠자리의 독'</t>
   </si>
   <si>
-    <t>희승이 이세계인을 돌보는 동안 필요한 재료를 구해야 한다.
-독잠자리의 독을 5개 수집해 오자.
-[젠장, 독잠자리한테 쏘여서 몸을 움짝달짝할 수가 없어!
-녀석의 독을 채취해서 무기에 대입해봐야겠어. 어서 가서 독잠자리의 독을 가져와달라구!]</t>
-  </si>
-  <si>
     <t>독잠자리</t>
   </si>
   <si>
@@ -730,10 +707,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Q_C01_01_03</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Q_C01_01_04</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -743,15 +716,6 @@
   </si>
   <si>
     <t>아이는 무사하다. 다시 엄마의 방으로 돌아가 무기를 챙긴 뒤 집 밖으로 탈출하자. (아이템 줍기 기능)를 통해 무기를 획득할 수 있다.</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>도심이 괴물들로 무척이나 혼란한 가운데 전화가 울려오고 있다. 전화를 받아
-무슨 일인지 알아보자. (전화 받기)를 통해 전화를 받을 수 있다.</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>불길한 전화벨소리</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -768,12 +732,6 @@
   </si>
   <si>
     <t>~4챕터까지의 퀘스트 작성 완료</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>고블린을 쓰러뜨렸지만.. 도망치려는 도중 고블린이 다시 일어섰다.
-희승에게 아이를 맡기고 다시 한 번 싸워야 한다.
-하지만…</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -825,19 +783,7 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>우식으로부터 노끈을 구해오는 작업을 받았다.
-노끈을 만드려면 낫이 필요하다.
-성심 캠프장 보급구역으로 이동하여 연수에게 가보자.
-마크를 따라 이동하라.
-[보급구역 NPC에 대한 설명]</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>낫 놓고 기역자도 모른다</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수에게서 낫과 노끈을 얻었다. 우식에게 가져다주자.</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -889,14 +835,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>희승에게 말을 걸어 트라우마 극복에 대해 얘기하는 주인공.
-희승은 계속해서 몬스터 사냥은 너무 위험하다고만 말한다.
-희승을 설득할 수 있게 보급구역의 연수를 찾아가보자.
-[(주인공)헌터가 된다는 것은 생각보다 훨씬 더 어려운 일이야.
-말만으로 되는 일이 아니라는 것을 염두해 둬야 해.]</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Q_C02_02_02</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -914,16 +852,6 @@
   </si>
   <si>
     <t>Q_C02_02_06</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수를 찾아간 주인공.
-비리비리한 몸으로 몬스터를 사냥할 수 있겠냐고 오히려 구박을 받는다.
-근처 스테이지로 가서 장작을 5개 패오라는 지시를 받는다.
-[희승 아저씨의 말이 맞아.
-그런 몸으로 뭘 할 수 있겠어?
-적어도 이 정도는 할 수 있는 사람이라는 걸 증명해 와야지!
-자, 도끼를 줄테니 장작을 패 와보렴.]</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -993,10 +921,6 @@
   </si>
   <si>
     <t>Q_C01_01_01 완료</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C01_01_02 완료</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -1185,12 +1109,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>이세계인은 여전히 말을 하지 통하지 않는다.
-희승의 텐트 안에 말이 통할만한 방법을 찾아보자.
-[아이템 줍기 : 물약 등]</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>성심 캠프장 희승의 텐트 안</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1333,10 +1251,6 @@
   </si>
   <si>
     <t>Q_C01_01_03 활성화</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_C01_01_04 활성화</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -2091,11 +2005,87 @@
     <t xml:space="preserve">5,6챕터 수정 완료 </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>우식으로부터 노끈을 구해오는 작업을 받았다.
+성심 캠프장 보급구역으로 이동하여 연수에게 가보자.
+마크를 따라 이동하라.
+[보급구역 NPC에 대한 설명]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수에게서 노끈을 얻었다. 우식에게 가져다주자.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프장 사람들에게 도움이 되고 싶은 욕심 커져 가는 주인공.
+희승과 캠프장 사람이 날이 추워져 땔감을 구하기 어렵다는 말을 엿듣고
+땔감을 구하러 가기로 결심한다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승 몰래 성심 캠프장 밖으로 나가 땔감을 구하러 가자. 마크를 따라 이동하라.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승에게 말을 걸어 트라우마 극복에 대해 얘기하는 주인공.
+희승은 계속해서 헌터의 길은 너무 위험하다고만 말한다.
+희승을 설득할 수 있게 보급구역의 연수를 찾아가보자.
+[(주인공)헌터가 된다는 것은 생각보다 훨씬 더 어려운 일이야.
+말만으로 되는 일이 아니라는 것을 염두해 둬야 해.]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수를 찾아간 주인공.
+비리비리한 몸으로 몬스터를 사냥할 수 있겠냐고 오히려 구박을 받는다.
+훈련구역으로 가서 쇳덩어리를 끌고 올 정도의 근력이 있는지 시험한다.
+[희승 아저씨의 말이 맞아.
+그런 몸으로 뭘 할 수 있겠어?
+훈련구역으로 가서 보급용 쇳덩어리를 가져와 봐.
+그럼 인정해 줄게.]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승은 각오가 확실하다면 자신의 텐트를 방문하라고 한다.
+희승 텐트로 찾아가자.
+[주인공, 연수가 너에게서 헌터의 자질이 보인다고 하더구나.
+정말 헌터의 길을 걷고싶은 거냐?
+각오가 된다면 찾아오거라.
+이제 너에게 그 길을 알려주마.]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2년 동안 무기 훈련술을 통해 강해진 주인공
+(페이드 아웃, 인 처리)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 힘이 느껴지십니까</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>희승이 이세계인을 돌보는 동안 필요한 재료를 구해야 한다.
+독잠자리의 독을 5개 수집해 오자.
+[쓰러진 사람이 독잠자리의 독에 당한 거라고 하더군.
+해독제를 만들 수 있게 녀석의 독을 채집해 와주게!]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린을 쓰러뜨렸지만.. 고블린 군단이 나타나버렸다.
+희승에게 아이를 맡기고 다시 한 번 싸워야 한다.
+그녀는 지킬 수 없는 약속을 하게 되고..</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세계인은 여전히 말을 하지 통하지 않는다.
+희승의 텐트 안에 말이 통할만한 방법을 찾아보자.
+[아이템 전달 : 물병 등]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -3119,108 +3109,6 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3230,25 +3118,13 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3260,19 +3136,10 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3280,9 +3147,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3295,12 +3159,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3344,6 +3202,138 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3376,7 +3366,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="이미지">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3597,23 +3587,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" customWidth="1"/>
-    <col min="3" max="3" width="54.69921875" customWidth="1"/>
-    <col min="4" max="4" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="54.75" customWidth="1"/>
+    <col min="4" max="4" width="2.75" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" customWidth="1"/>
-    <col min="7" max="7" width="63.09765625" customWidth="1"/>
-    <col min="8" max="26" width="5.69921875" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="63.125" customWidth="1"/>
+    <col min="8" max="26" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
@@ -3646,14 +3636,14 @@
     </row>
     <row r="2" spans="1:26" ht="56.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3681,8 +3671,8 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="74"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3708,16 +3698,16 @@
     </row>
     <row r="4" spans="1:26" ht="27.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="71"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3750,10 +3740,10 @@
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="71"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3788,10 +3778,10 @@
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3824,10 +3814,10 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="71"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -31758,170 +31748,170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" customWidth="1"/>
-    <col min="4" max="4" width="49.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="49.375" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="26" width="6.59765625" customWidth="1"/>
+    <col min="6" max="26" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="90" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92">
         <v>44164</v>
       </c>
-      <c r="C2" s="137" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="138" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="139"/>
+      <c r="C2" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="144">
+      <c r="A3" s="96"/>
+      <c r="B3" s="100">
         <v>44164</v>
       </c>
-      <c r="C3" s="142" t="s">
-        <v>541</v>
-      </c>
-      <c r="D3" s="141" t="s">
-        <v>542</v>
-      </c>
-      <c r="E3" s="143"/>
+      <c r="C3" s="98" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="143"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="143"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A6" s="140"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="143"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A7" s="140"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="143"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="143"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="99"/>
     </row>
     <row r="9" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="143"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="10" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A10" s="140"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="143"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="99"/>
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="140"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="143"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="99"/>
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="143"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="140"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="143"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="140"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="143"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="140"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="143"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="99"/>
     </row>
     <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="140"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="143"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="99"/>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="140"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="143"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="143"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1">
       <c r="A19" s="17"/>
@@ -33405,89 +33395,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="4" width="22.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="52.296875" customWidth="1"/>
-    <col min="7" max="7" width="38.59765625" customWidth="1"/>
-    <col min="8" max="8" width="25.69921875" customWidth="1"/>
-    <col min="9" max="9" width="14.8984375" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="52.25" customWidth="1"/>
+    <col min="7" max="7" width="38.625" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="4.09765625" customWidth="1"/>
+    <col min="11" max="11" width="4.125" customWidth="1"/>
     <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="4.09765625" customWidth="1"/>
+    <col min="13" max="13" width="4.125" customWidth="1"/>
     <col min="14" max="14" width="47.5" customWidth="1"/>
-    <col min="15" max="15" width="13.59765625" customWidth="1"/>
-    <col min="16" max="16" width="4.8984375" customWidth="1"/>
-    <col min="17" max="17" width="8.8984375" customWidth="1"/>
-    <col min="18" max="18" width="4.09765625" customWidth="1"/>
-    <col min="19" max="19" width="11.59765625" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" customWidth="1"/>
-    <col min="21" max="21" width="23.19921875" customWidth="1"/>
-    <col min="22" max="22" width="9.8984375" customWidth="1"/>
-    <col min="23" max="23" width="4.8984375" customWidth="1"/>
-    <col min="24" max="24" width="8.8984375" customWidth="1"/>
-    <col min="25" max="25" width="4.8984375" customWidth="1"/>
-    <col min="26" max="26" width="8.8984375" customWidth="1"/>
-    <col min="27" max="27" width="4.8984375" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="4.875" customWidth="1"/>
+    <col min="17" max="17" width="8.875" customWidth="1"/>
+    <col min="18" max="18" width="4.125" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="15.25" customWidth="1"/>
+    <col min="21" max="21" width="23.25" customWidth="1"/>
+    <col min="22" max="22" width="9.875" customWidth="1"/>
+    <col min="23" max="23" width="4.875" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="25" max="25" width="4.875" customWidth="1"/>
+    <col min="26" max="26" width="8.875" customWidth="1"/>
+    <col min="27" max="27" width="4.875" customWidth="1"/>
     <col min="28" max="28" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102" t="s">
+      <c r="D1" s="138"/>
+      <c r="E1" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="86" t="s">
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="86" t="s">
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="88"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="137"/>
       <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
-      <c r="AB1" s="89" t="s">
+      <c r="AB1" s="119" t="s">
         <v>46</v>
       </c>
     </row>
@@ -33504,7 +33494,7 @@
       <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="103"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="25" t="s">
         <v>58</v>
       </c>
@@ -33567,23 +33557,23 @@
       </c>
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
-      <c r="AB2" s="85"/>
+      <c r="AB2" s="120"/>
     </row>
     <row r="3" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>539</v>
+      <c r="A3" s="133" t="s">
+        <v>523</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>63</v>
@@ -33650,37 +33640,37 @@
       <c r="AB3" s="28"/>
     </row>
     <row r="4" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A4" s="83"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="33" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
@@ -33698,14 +33688,14 @@
       <c r="AB4" s="28"/>
     </row>
     <row r="5" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A5" s="81" t="s">
-        <v>538</v>
-      </c>
-      <c r="B5" s="95" t="s">
+      <c r="A5" s="133" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5" s="130" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>70</v>
@@ -33717,7 +33707,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>73</v>
@@ -33780,10 +33770,10 @@
       <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="1:28" ht="42" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>77</v>
@@ -33792,16 +33782,16 @@
         <v>71</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>76</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>61</v>
@@ -33837,7 +33827,7 @@
         <v>81</v>
       </c>
       <c r="U6" s="28" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="V6" s="28" t="s">
         <v>61</v>
@@ -33860,22 +33850,22 @@
       <c r="AB6" s="28"/>
     </row>
     <row r="7" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>82</v>
@@ -33896,7 +33886,7 @@
         <v>61</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>61</v>
@@ -33911,13 +33901,13 @@
         <v>61</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="U7" s="28" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="V7" s="28" t="s">
         <v>61</v>
@@ -33939,26 +33929,26 @@
       </c>
       <c r="AB7" s="28"/>
     </row>
-    <row r="8" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="96"/>
+    <row r="8" spans="1:28" ht="48" customHeight="1">
+      <c r="A8" s="134"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>66</v>
@@ -33976,7 +33966,7 @@
         <v>61</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>61</v>
@@ -33991,13 +33981,13 @@
         <v>61</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="U8" s="28" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="V8" s="28" t="s">
         <v>61</v>
@@ -34020,160 +34010,160 @@
       <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28" ht="48" customHeight="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>90</v>
-      </c>
       <c r="E9" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+    </row>
+    <row r="10" spans="1:28" ht="63.75" customHeight="1">
+      <c r="A10" s="124" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="28" t="s">
+      <c r="F10" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="28" t="s">
+      <c r="N10" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="R10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="V9" s="28" t="s">
+      <c r="S10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="V10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="28" t="s">
+      <c r="Y10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="Z9" s="33" t="s">
+      <c r="Z10" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AA9" s="28" t="s">
+      <c r="AA10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="28"/>
-    </row>
-    <row r="10" spans="1:28" ht="48" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="AB10" s="28"/>
+    </row>
+    <row r="11" spans="1:28" ht="48.75" customHeight="1">
+      <c r="A11" s="125"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-    </row>
-    <row r="11" spans="1:28" ht="63.75" customHeight="1">
-      <c r="A11" s="90" t="s">
-        <v>537</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>228</v>
-      </c>
       <c r="D11" s="29" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>61</v>
@@ -34188,7 +34178,7 @@
         <v>61</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>61</v>
@@ -34203,13 +34193,13 @@
         <v>61</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U11" s="28" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="V11" s="28" t="s">
         <v>61</v>
@@ -34231,29 +34221,29 @@
       </c>
       <c r="AB11" s="28"/>
     </row>
-    <row r="12" spans="1:28" ht="48.75" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="84"/>
+    <row r="12" spans="1:28" ht="45.75" customHeight="1">
+      <c r="A12" s="125"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="28" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>61</v>
@@ -34268,7 +34258,7 @@
         <v>61</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>61</v>
@@ -34283,19 +34273,19 @@
         <v>61</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" s="31" t="s">
         <v>100</v>
       </c>
+      <c r="T12" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="U12" s="28" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="V12" s="28" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="X12" s="28" t="s">
         <v>61</v>
@@ -34311,44 +34301,36 @@
       </c>
       <c r="AB12" s="28"/>
     </row>
-    <row r="13" spans="1:28" ht="45.75" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="84"/>
+    <row r="13" spans="1:28" ht="43.5" customHeight="1">
+      <c r="A13" s="125"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="28" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>61</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="28" t="s">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>61</v>
@@ -34363,19 +34345,19 @@
         <v>61</v>
       </c>
       <c r="S13" s="28" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T13" s="28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="W13" s="28" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="X13" s="28" t="s">
         <v>61</v>
@@ -34391,36 +34373,44 @@
       </c>
       <c r="AB13" s="28"/>
     </row>
-    <row r="14" spans="1:28" ht="43.5" customHeight="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="84"/>
+    <row r="14" spans="1:28" ht="62.25" customHeight="1">
+      <c r="A14" s="125"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="28" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>105</v>
+        <v>527</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>286</v>
+        <v>261</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28" t="s">
-        <v>106</v>
+        <v>331</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>354</v>
       </c>
       <c r="O14" s="28" t="s">
         <v>61</v>
@@ -34435,19 +34425,19 @@
         <v>61</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T14" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U14" s="28" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="W14" s="28" t="s">
-        <v>61</v>
+        <v>110</v>
+      </c>
+      <c r="W14" s="28">
+        <v>1</v>
       </c>
       <c r="X14" s="28" t="s">
         <v>61</v>
@@ -34463,29 +34453,29 @@
       </c>
       <c r="AB14" s="28"/>
     </row>
-    <row r="15" spans="1:28" ht="62.25" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="84"/>
+    <row r="15" spans="1:28" ht="55.5" customHeight="1">
+      <c r="A15" s="125"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="28" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>235</v>
+      <c r="F15" s="28" t="s">
+        <v>528</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>61</v>
@@ -34500,34 +34490,30 @@
         <v>61</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="O15" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="V15" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="28" t="s">
+      <c r="W15" s="33" t="s">
         <v>61</v>
-      </c>
-      <c r="Q15" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="U15" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="V15" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="W15" s="28">
-        <v>1</v>
       </c>
       <c r="X15" s="28" t="s">
         <v>61</v>
@@ -34543,29 +34529,29 @@
       </c>
       <c r="AB15" s="28"/>
     </row>
-    <row r="16" spans="1:28" ht="55.5" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="84"/>
+    <row r="16" spans="1:28" ht="40.5" customHeight="1">
+      <c r="A16" s="125"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="28" t="s">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>237</v>
+      <c r="F16" s="31" t="s">
+        <v>529</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>61</v>
@@ -34579,25 +34565,29 @@
       <c r="M16" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="31" t="s">
-        <v>371</v>
+      <c r="N16" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="S16" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>108</v>
+        <v>83</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="U16" s="28" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="V16" s="28" t="s">
         <v>61</v>
@@ -34619,29 +34609,29 @@
       </c>
       <c r="AB16" s="28"/>
     </row>
-    <row r="17" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="84"/>
+    <row r="17" spans="1:28" ht="36.75" customHeight="1">
+      <c r="A17" s="125"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="28" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>112</v>
+        <v>530</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>339</v>
+        <v>262</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>323</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="J17" s="28" t="s">
         <v>61</v>
@@ -34671,13 +34661,13 @@
         <v>61</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="V17" s="28" t="s">
         <v>61</v>
@@ -34699,26 +34689,26 @@
       </c>
       <c r="AB17" s="28"/>
     </row>
-    <row r="18" spans="1:28" ht="36.75" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="84"/>
+    <row r="18" spans="1:28" ht="75" customHeight="1">
+      <c r="A18" s="125"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="28" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>66</v>
@@ -34735,7 +34725,7 @@
       <c r="M18" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="31" t="s">
         <v>116</v>
       </c>
       <c r="O18" s="28" t="s">
@@ -34751,13 +34741,13 @@
         <v>61</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T18" s="31" t="s">
         <v>117</v>
       </c>
       <c r="U18" s="28" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="V18" s="28" t="s">
         <v>61</v>
@@ -34779,11 +34769,11 @@
       </c>
       <c r="AB18" s="28"/>
     </row>
-    <row r="19" spans="1:28" ht="75" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="84"/>
+    <row r="19" spans="1:28" ht="72" customHeight="1">
+      <c r="A19" s="125"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="28" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>118</v>
@@ -34792,103 +34782,71 @@
         <v>71</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>245</v>
+        <v>531</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>338</v>
+        <v>264</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>324</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="V19" s="28"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+    </row>
+    <row r="20" spans="1:28" ht="93" customHeight="1">
+      <c r="A20" s="125"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="O19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="T19" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="U19" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="V19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="W19" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="X19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z19" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB19" s="28"/>
-    </row>
-    <row r="20" spans="1:28" ht="72" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>246</v>
+        <v>532</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>339</v>
+        <v>265</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>322</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
       <c r="N20" s="28" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
@@ -34897,7 +34855,7 @@
       <c r="S20" s="28"/>
       <c r="T20" s="31"/>
       <c r="U20" s="28" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="V20" s="28"/>
       <c r="W20" s="33"/>
@@ -34907,285 +34865,271 @@
       <c r="AA20" s="28"/>
       <c r="AB20" s="28"/>
     </row>
-    <row r="21" spans="1:28" ht="93" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="84"/>
+    <row r="21" spans="1:28" ht="85.5" customHeight="1">
+      <c r="A21" s="126"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="28" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>252</v>
+        <v>533</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>337</v>
+        <v>266</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>324</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+        <v>301</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="N21" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="V21" s="28"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="28"/>
+        <v>358</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="T21" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="U21" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="W21" s="33">
+        <v>1</v>
+      </c>
+      <c r="X21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="AB21" s="28"/>
     </row>
-    <row r="22" spans="1:28" ht="85.5" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="29" t="s">
+    <row r="22" spans="1:28" ht="69.75" customHeight="1">
+      <c r="A22" s="142" t="s">
+        <v>520</v>
+      </c>
+      <c r="B22" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>124</v>
+      <c r="F22" s="68" t="s">
+        <v>241</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="O22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="T22" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="U22" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="V22" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="W22" s="33">
-        <v>1</v>
-      </c>
-      <c r="X22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z22" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB22" s="28"/>
-    </row>
-    <row r="23" spans="1:28" ht="69.75" customHeight="1">
-      <c r="A23" s="78" t="s">
-        <v>536</v>
-      </c>
-      <c r="B23" s="98" t="s">
-        <v>253</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+    </row>
+    <row r="23" spans="1:28" ht="38.25" customHeight="1">
+      <c r="A23" s="143"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>127</v>
+        <v>247</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>245</v>
       </c>
       <c r="E23" s="67" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>339</v>
+        <v>124</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>272</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
+        <v>301</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="65">
+        <v>1</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="N23" s="65" t="s">
-        <v>375</v>
-      </c>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="68"/>
+        <v>360</v>
+      </c>
+      <c r="O23" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="65">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="T23" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="65"/>
+      <c r="V23" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="W23" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="X23" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y23" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA23" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="AB23" s="65"/>
     </row>
     <row r="24" spans="1:28" ht="38.25" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="64" t="s">
-        <v>260</v>
-      </c>
+      <c r="A24" s="143"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>71</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="E24" s="67"/>
       <c r="F24" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>319</v>
-      </c>
-      <c r="H24" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="J24" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="65">
-        <v>1</v>
-      </c>
-      <c r="L24" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" s="65" t="s">
-        <v>376</v>
-      </c>
-      <c r="O24" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="P24" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="R24" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="T24" s="65" t="s">
-        <v>108</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
       <c r="U24" s="65"/>
-      <c r="V24" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="W24" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="X24" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y24" s="65">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA24" s="65" t="s">
-        <v>61</v>
-      </c>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
       <c r="AB24" s="65"/>
     </row>
-    <row r="25" spans="1:28" ht="67.5" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="99"/>
+    <row r="25" spans="1:28" ht="90.75" customHeight="1">
+      <c r="A25" s="143"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="64" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E25" s="67" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G25" s="64" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H25" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J25" s="65" t="s">
         <v>61</v>
@@ -35200,13 +35144,13 @@
         <v>61</v>
       </c>
       <c r="N25" s="68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P25" s="65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="65" t="s">
         <v>61</v>
@@ -35215,23 +35159,23 @@
         <v>61</v>
       </c>
       <c r="S25" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="T25" s="65" t="s">
         <v>107</v>
-      </c>
-      <c r="T25" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="U25" s="68"/>
       <c r="V25" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W25" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X25" s="65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y25" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z25" s="65" t="s">
         <v>61</v>
@@ -35241,29 +35185,29 @@
       </c>
       <c r="AB25" s="65"/>
     </row>
-    <row r="26" spans="1:28" ht="71.25" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="99"/>
+    <row r="26" spans="1:28" ht="93.75" customHeight="1">
+      <c r="A26" s="143"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="64" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E26" s="67" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H26" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" s="65" t="s">
         <v>61</v>
@@ -35278,13 +35222,13 @@
         <v>61</v>
       </c>
       <c r="N26" s="68" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="O26" s="65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P26" s="65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="65" t="s">
         <v>61</v>
@@ -35293,23 +35237,23 @@
         <v>61</v>
       </c>
       <c r="S26" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="T26" s="65" t="s">
         <v>109</v>
-      </c>
-      <c r="T26" s="65" t="s">
-        <v>110</v>
       </c>
       <c r="U26" s="68"/>
       <c r="V26" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W26" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X26" s="65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Y26" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z26" s="65" t="s">
         <v>61</v>
@@ -35320,35 +35264,35 @@
       <c r="AB26" s="65"/>
     </row>
     <row r="27" spans="1:28" ht="71.25" customHeight="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="64" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E27" s="67" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G27" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="68" t="s">
-        <v>337</v>
-      </c>
       <c r="I27" s="65" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="J27" s="65"/>
       <c r="K27" s="65"/>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="68" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="O27" s="65"/>
       <c r="P27" s="65"/>
@@ -35366,35 +35310,35 @@
       <c r="AB27" s="65"/>
     </row>
     <row r="28" spans="1:28" ht="71.25" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="64" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E28" s="67" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G28" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="H28" s="31" t="s">
-        <v>338</v>
-      </c>
       <c r="I28" s="65" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
       <c r="N28" s="68" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="O28" s="65"/>
       <c r="P28" s="65"/>
@@ -35413,39 +35357,39 @@
     </row>
     <row r="29" spans="1:28" ht="54.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
       <c r="N29" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O29" s="37" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P29" s="37">
         <v>1</v>
@@ -35453,17 +35397,17 @@
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
       <c r="S29" s="37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T29" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U29" s="37"/>
       <c r="V29" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W29" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
@@ -35473,39 +35417,39 @@
     </row>
     <row r="30" spans="1:28" ht="70.5" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="43" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="J30" s="40"/>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
       <c r="N30" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O30" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P30" s="40">
         <v>1</v>
@@ -35513,17 +35457,17 @@
       <c r="Q30" s="40"/>
       <c r="R30" s="40"/>
       <c r="S30" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T30" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U30" s="40"/>
       <c r="V30" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W30" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X30" s="40"/>
       <c r="Y30" s="40"/>
@@ -35533,39 +35477,39 @@
     </row>
     <row r="31" spans="1:28" ht="60" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O31" s="37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P31" s="37">
         <v>10</v>
@@ -35573,17 +35517,17 @@
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
       <c r="S31" s="37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T31" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U31" s="37"/>
       <c r="V31" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W31" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
@@ -35593,29 +35537,29 @@
     </row>
     <row r="32" spans="1:28" ht="60" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -35638,29 +35582,29 @@
       <c r="AB32" s="37"/>
     </row>
     <row r="33" spans="1:28" ht="42.75" customHeight="1">
-      <c r="A33" s="81" t="s">
-        <v>535</v>
-      </c>
-      <c r="B33" s="93" t="s">
-        <v>160</v>
+      <c r="A33" s="133" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33" s="127" t="s">
+        <v>156</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>66</v>
@@ -35678,7 +35622,7 @@
         <v>61</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O33" s="28" t="s">
         <v>61</v>
@@ -35693,17 +35637,17 @@
         <v>61</v>
       </c>
       <c r="S33" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T33" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U33" s="28"/>
       <c r="V33" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W33" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X33" s="28" t="s">
         <v>61</v>
@@ -35720,25 +35664,25 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="1:28" ht="52.5" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="84"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="28" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>66</v>
@@ -35756,7 +35700,7 @@
         <v>61</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O34" s="28" t="s">
         <v>61</v>
@@ -35771,17 +35715,17 @@
         <v>61</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T34" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U34" s="28"/>
       <c r="V34" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W34" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X34" s="28" t="s">
         <v>61</v>
@@ -35798,28 +35742,28 @@
       <c r="AB34" s="28"/>
     </row>
     <row r="35" spans="1:28" ht="58.5" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="28" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="J35" s="28" t="s">
         <v>61</v>
@@ -35834,13 +35778,13 @@
         <v>61</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O35" s="28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P35" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q35" s="28" t="s">
         <v>61</v>
@@ -35849,17 +35793,17 @@
         <v>61</v>
       </c>
       <c r="S35" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T35" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U35" s="28"/>
       <c r="V35" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W35" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X35" s="28" t="s">
         <v>61</v>
@@ -35876,40 +35820,40 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="1:28" ht="73.5" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="93" t="s">
-        <v>297</v>
+      <c r="A36" s="134"/>
+      <c r="B36" s="127" t="s">
+        <v>283</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
       <c r="N36" s="48" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="O36" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P36" s="33">
         <v>10</v>
@@ -35917,10 +35861,10 @@
       <c r="Q36" s="33"/>
       <c r="R36" s="33"/>
       <c r="S36" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="T36" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="T36" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="U36" s="33"/>
       <c r="V36" s="33"/>
@@ -35932,38 +35876,38 @@
       <c r="AB36" s="33"/>
     </row>
     <row r="37" spans="1:28" ht="68.25" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="84"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="28" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>172</v>
+        <v>536</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
       <c r="N37" s="48" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="O37" s="33" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P37" s="33">
         <v>10</v>
@@ -35971,10 +35915,10 @@
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="T37" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="T37" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="U37" s="33"/>
       <c r="V37" s="33"/>
@@ -35986,38 +35930,38 @@
       <c r="AB37" s="33"/>
     </row>
     <row r="38" spans="1:28" ht="66" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="84"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="28" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
       <c r="N38" s="48" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="O38" s="33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P38" s="33">
         <v>10</v>
@@ -36025,10 +35969,10 @@
       <c r="Q38" s="33"/>
       <c r="R38" s="33"/>
       <c r="S38" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="T38" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="T38" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="U38" s="33"/>
       <c r="V38" s="33"/>
@@ -36040,38 +35984,38 @@
       <c r="AB38" s="33"/>
     </row>
     <row r="39" spans="1:28" ht="65.25" customHeight="1">
-      <c r="A39" s="82"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="28" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="48" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O39" s="33" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P39" s="33">
         <v>10</v>
@@ -36079,10 +36023,10 @@
       <c r="Q39" s="33"/>
       <c r="R39" s="33"/>
       <c r="S39" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="T39" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="T39" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="U39" s="33"/>
       <c r="V39" s="33"/>
@@ -36094,30 +36038,30 @@
       <c r="AB39" s="33"/>
     </row>
     <row r="40" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A40" s="82"/>
-      <c r="B40" s="93" t="s">
-        <v>180</v>
+      <c r="A40" s="134"/>
+      <c r="B40" s="127" t="s">
+        <v>175</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>61</v>
@@ -36132,7 +36076,7 @@
         <v>61</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="O40" s="33" t="s">
         <v>61</v>
@@ -36147,17 +36091,17 @@
         <v>61</v>
       </c>
       <c r="S40" s="33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T40" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U40" s="48"/>
       <c r="V40" s="33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W40" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X40" s="33" t="s">
         <v>61</v>
@@ -36174,35 +36118,35 @@
       <c r="AB40" s="33"/>
     </row>
     <row r="41" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="84"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="28" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E41" s="50" t="s">
         <v>71</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>313</v>
+        <v>538</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
@@ -36220,35 +36164,35 @@
       <c r="AB41" s="33"/>
     </row>
     <row r="42" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A42" s="83"/>
-      <c r="B42" s="85"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="28" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="33" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="O42" s="33"/>
       <c r="P42" s="33"/>
@@ -36266,513 +36210,513 @@
       <c r="AB42" s="33"/>
     </row>
     <row r="43" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A43" s="125" t="s">
-        <v>326</v>
-      </c>
-      <c r="B43" s="125" t="s">
+      <c r="A43" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="O43" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="P43" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q43" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="R43" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="S43" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="T43" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="U43" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="V43" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="W43" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="X43" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y43" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z43" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA43" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB43" s="83"/>
+    </row>
+    <row r="44" spans="1:28" ht="49.5" customHeight="1">
+      <c r="A44" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="H44" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="J44" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="M44" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="O44" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="P44" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q44" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="R44" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="S44" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="T44" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="U44" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="125" t="s">
+      <c r="V44" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="W44" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="X44" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y44" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z44" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="126" t="s">
+      <c r="AA44" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="128" t="s">
-        <v>324</v>
-      </c>
-      <c r="G43" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="H43" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="125" t="s">
-        <v>345</v>
-      </c>
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="128" t="s">
-        <v>189</v>
-      </c>
-      <c r="O43" s="125" t="s">
+      <c r="AB44" s="83"/>
+    </row>
+    <row r="45" spans="1:28" ht="52.5" customHeight="1">
+      <c r="A45" s="121" t="s">
+        <v>518</v>
+      </c>
+      <c r="B45" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="P43" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q43" s="125" t="s">
+      <c r="C45" s="83" t="s">
+        <v>514</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="H45" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="R43" s="125" t="s">
+      <c r="K45" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="S43" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="T43" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="U43" s="128" t="s">
-        <v>131</v>
-      </c>
-      <c r="V43" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="W43" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="X43" s="125" t="s">
+      <c r="L45" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="M45" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="N45" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="O45" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q45" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="R45" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="S45" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="T45" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="U45" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="V45" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="W45" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="Y43" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z43" s="125" t="s">
+      <c r="X45" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AA43" s="125" t="s">
+      <c r="Y45" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AB43" s="125"/>
-    </row>
-    <row r="44" spans="1:28" ht="49.5" customHeight="1">
-      <c r="A44" s="125" t="s">
-        <v>326</v>
-      </c>
-      <c r="B44" s="125" t="s">
-        <v>327</v>
-      </c>
-      <c r="C44" s="125" t="s">
+      <c r="Z45" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="126" t="s">
+      <c r="AA45" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="128" t="s">
+      <c r="AB45" s="83"/>
+    </row>
+    <row r="46" spans="1:28" ht="43.5" customHeight="1">
+      <c r="A46" s="122"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="H46" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="I46" s="83" t="s">
         <v>328</v>
       </c>
-      <c r="G44" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="H44" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" s="125" t="s">
-        <v>346</v>
-      </c>
-      <c r="J44" s="125" t="s">
+      <c r="J46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="125" t="s">
+      <c r="K46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="L44" s="125" t="s">
+      <c r="L46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="125" t="s">
+      <c r="M46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="N44" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="O44" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="P44" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q44" s="125" t="s">
+      <c r="N46" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="O46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="R44" s="125" t="s">
+      <c r="P46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="S44" s="125" t="s">
-        <v>109</v>
-      </c>
-      <c r="T44" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="U44" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="V44" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="W44" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="X44" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y44" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z44" s="125" t="s">
+      <c r="Q46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AA44" s="125" t="s">
+      <c r="R46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AB44" s="125"/>
-    </row>
-    <row r="45" spans="1:28" ht="52.5" customHeight="1">
-      <c r="A45" s="124" t="s">
-        <v>534</v>
-      </c>
-      <c r="B45" s="124" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45" s="125" t="s">
-        <v>530</v>
-      </c>
-      <c r="D45" s="126" t="s">
+      <c r="S46" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="T46" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="127" t="s">
+      <c r="U46" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="V46" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="W46" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="X46" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y46" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z46" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA46" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB46" s="83"/>
+    </row>
+    <row r="47" spans="1:28" ht="44.25" customHeight="1">
+      <c r="A47" s="122"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="D47" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="128" t="s">
-        <v>329</v>
-      </c>
-      <c r="G45" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="H45" s="125" t="s">
-        <v>314</v>
-      </c>
-      <c r="I45" s="125" t="s">
+      <c r="F47" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="83" t="s">
         <v>316</v>
       </c>
-      <c r="J45" s="125" t="s">
+      <c r="H47" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="I47" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="K45" s="125" t="s">
+      <c r="K47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="L45" s="125" t="s">
+      <c r="L47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="125" t="s">
+      <c r="M47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="N45" s="125" t="s">
-        <v>183</v>
-      </c>
-      <c r="O45" s="125" t="s">
+      <c r="N47" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="O47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="P45" s="125" t="s">
+      <c r="P47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="Q45" s="125" t="s">
+      <c r="Q47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="R45" s="125" t="s">
+      <c r="R47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="S45" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="T45" s="125" t="s">
-        <v>108</v>
-      </c>
-      <c r="U45" s="125" t="s">
-        <v>197</v>
-      </c>
-      <c r="V45" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="W45" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="X45" s="125" t="s">
+      <c r="S47" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="T47" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="U47" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="V47" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="W47" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="X47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="Y45" s="125" t="s">
+      <c r="Y47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="Z45" s="125" t="s">
+      <c r="Z47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AA45" s="125" t="s">
+      <c r="AA47" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AB45" s="125"/>
-    </row>
-    <row r="46" spans="1:28" ht="43.5" customHeight="1">
-      <c r="A46" s="129"/>
-      <c r="B46" s="129"/>
-      <c r="C46" s="125" t="s">
-        <v>531</v>
-      </c>
-      <c r="D46" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="127" t="s">
+      <c r="AB47" s="83"/>
+    </row>
+    <row r="48" spans="1:28" ht="39.6" customHeight="1">
+      <c r="A48" s="123"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="125" t="s">
-        <v>330</v>
-      </c>
-      <c r="H46" s="125" t="s">
-        <v>338</v>
-      </c>
-      <c r="I46" s="125" t="s">
-        <v>343</v>
-      </c>
-      <c r="J46" s="125" t="s">
+      <c r="F48" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="83" t="s">
+        <v>317</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="I48" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="J48" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="K46" s="125" t="s">
+      <c r="K48" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="L46" s="125" t="s">
+      <c r="L48" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="M46" s="125" t="s">
+      <c r="M48" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="N46" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="O46" s="125" t="s">
+      <c r="N48" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="O48" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="P46" s="125" t="s">
+      <c r="P48" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="Q46" s="125" t="s">
+      <c r="Q48" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="R46" s="125" t="s">
+      <c r="R48" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="S46" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="T46" s="128" t="s">
-        <v>201</v>
-      </c>
-      <c r="U46" s="125" t="s">
-        <v>202</v>
-      </c>
-      <c r="V46" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="W46" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="X46" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y46" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z46" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA46" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB46" s="125"/>
-    </row>
-    <row r="47" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A47" s="129"/>
-      <c r="B47" s="129"/>
-      <c r="C47" s="125" t="s">
-        <v>532</v>
-      </c>
-      <c r="D47" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="128" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="125" t="s">
-        <v>331</v>
-      </c>
-      <c r="H47" s="125" t="s">
-        <v>338</v>
-      </c>
-      <c r="I47" s="125" t="s">
-        <v>343</v>
-      </c>
-      <c r="J47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="L47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="M47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="N47" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="O47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="P47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="R47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="S47" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="T47" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="U47" s="125" t="s">
-        <v>207</v>
-      </c>
-      <c r="V47" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="W47" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="X47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA47" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB47" s="125"/>
-    </row>
-    <row r="48" spans="1:28" ht="39.6" customHeight="1">
-      <c r="A48" s="130"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="125" t="s">
-        <v>533</v>
-      </c>
-      <c r="D48" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="128" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="125" t="s">
-        <v>332</v>
-      </c>
-      <c r="H48" s="125" t="s">
-        <v>338</v>
-      </c>
-      <c r="I48" s="125" t="s">
-        <v>316</v>
-      </c>
-      <c r="J48" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="L48" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="M48" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="N48" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="O48" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="P48" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q48" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="R48" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="S48" s="125" t="s">
-        <v>126</v>
-      </c>
-      <c r="T48" s="125" t="s">
-        <v>184</v>
-      </c>
-      <c r="U48" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="V48" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="W48" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="X48" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y48" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z48" s="125" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA48" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB48" s="125"/>
-    </row>
-    <row r="49" spans="1:28" s="105" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A49" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="B49" s="98" t="s">
-        <v>387</v>
+      <c r="S48" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T48" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="U48" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="V48" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="W48" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="X48" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y48" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z48" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA48" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB48" s="83"/>
+    </row>
+    <row r="49" spans="1:28" s="71" customFormat="1" ht="41.45" customHeight="1">
+      <c r="A49" s="112" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" s="112" t="s">
+        <v>371</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="D49" s="104" t="s">
-        <v>389</v>
+        <v>372</v>
+      </c>
+      <c r="D49" s="70" t="s">
+        <v>373</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>71</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>66</v>
@@ -36790,7 +36734,7 @@
         <v>61</v>
       </c>
       <c r="N49" s="28" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="O49" s="28" t="s">
         <v>61</v>
@@ -36805,19 +36749,19 @@
         <v>61</v>
       </c>
       <c r="S49" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T49" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U49" s="28" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="V49" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W49" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X49" s="28" t="s">
         <v>61</v>
@@ -36833,26 +36777,26 @@
       </c>
       <c r="AB49" s="28"/>
     </row>
-    <row r="50" spans="1:28" s="105" customFormat="1" ht="42.6" customHeight="1">
-      <c r="A50" s="99"/>
-      <c r="B50" s="99"/>
+    <row r="50" spans="1:28" s="71" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A50" s="113"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="D50" s="104" t="s">
-        <v>396</v>
+        <v>379</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>380</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="H50" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>66</v>
@@ -36870,10 +36814,10 @@
         <v>61</v>
       </c>
       <c r="N50" s="28" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="O50" s="28" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="P50" s="28" t="s">
         <v>61</v>
@@ -36885,19 +36829,19 @@
         <v>61</v>
       </c>
       <c r="S50" s="28" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="T50" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U50" s="28" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="V50" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W50" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X50" s="28"/>
       <c r="Y50" s="28"/>
@@ -36905,26 +36849,26 @@
       <c r="AA50" s="28"/>
       <c r="AB50" s="28"/>
     </row>
-    <row r="51" spans="1:28" s="105" customFormat="1" ht="42.6" customHeight="1">
-      <c r="A51" s="99"/>
-      <c r="B51" s="99"/>
+    <row r="51" spans="1:28" s="71" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A51" s="113"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="D51" s="104" t="s">
-        <v>404</v>
+        <v>387</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>388</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>71</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>66</v>
@@ -36942,13 +36886,13 @@
         <v>61</v>
       </c>
       <c r="N51" s="28" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="O51" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P51" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q51" s="28" t="s">
         <v>61</v>
@@ -36957,19 +36901,19 @@
         <v>61</v>
       </c>
       <c r="S51" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T51" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U51" s="31" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="V51" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W51" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X51" s="28" t="s">
         <v>61</v>
@@ -36985,23 +36929,23 @@
       </c>
       <c r="AB51" s="28"/>
     </row>
-    <row r="52" spans="1:28" s="105" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A52" s="99"/>
-      <c r="B52" s="99"/>
+    <row r="52" spans="1:28" s="71" customFormat="1" ht="41.45" customHeight="1">
+      <c r="A52" s="113"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="D52" s="104" t="s">
-        <v>410</v>
+        <v>393</v>
+      </c>
+      <c r="D52" s="70" t="s">
+        <v>394</v>
       </c>
       <c r="E52" s="27" t="s">
         <v>71</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="H52" s="31" t="s">
         <v>61</v>
@@ -37022,13 +36966,13 @@
         <v>61</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="O52" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P52" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q52" s="28" t="s">
         <v>61</v>
@@ -37037,19 +36981,19 @@
         <v>61</v>
       </c>
       <c r="S52" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T52" s="28" t="s">
         <v>61</v>
       </c>
       <c r="U52" s="31" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="V52" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W52" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X52" s="28" t="s">
         <v>61</v>
@@ -37065,23 +37009,23 @@
       </c>
       <c r="AB52" s="28"/>
     </row>
-    <row r="53" spans="1:28" s="105" customFormat="1" ht="36.6" customHeight="1">
-      <c r="A53" s="99"/>
-      <c r="B53" s="99"/>
+    <row r="53" spans="1:28" s="71" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A53" s="113"/>
+      <c r="B53" s="113"/>
       <c r="C53" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D53" s="104" t="s">
-        <v>416</v>
+        <v>399</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>400</v>
       </c>
       <c r="E53" s="27" t="s">
         <v>71</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="H53" s="28" t="s">
         <v>61</v>
@@ -37102,13 +37046,13 @@
         <v>61</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="O53" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q53" s="28" t="s">
         <v>61</v>
@@ -37117,19 +37061,19 @@
         <v>61</v>
       </c>
       <c r="S53" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T53" s="28" t="s">
         <v>61</v>
       </c>
       <c r="U53" s="31" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="V53" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W53" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X53" s="28" t="s">
         <v>61</v>
@@ -37145,23 +37089,23 @@
       </c>
       <c r="AB53" s="28"/>
     </row>
-    <row r="54" spans="1:28" s="105" customFormat="1" ht="43.8" customHeight="1">
-      <c r="A54" s="100"/>
-      <c r="B54" s="100"/>
+    <row r="54" spans="1:28" s="71" customFormat="1" ht="43.9" customHeight="1">
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="D54" s="104" t="s">
-        <v>422</v>
+        <v>405</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>406</v>
       </c>
       <c r="E54" s="27" t="s">
         <v>71</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="H54" s="28" t="s">
         <v>61</v>
@@ -37182,13 +37126,13 @@
         <v>61</v>
       </c>
       <c r="N54" s="28" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="O54" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P54" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q54" s="28" t="s">
         <v>61</v>
@@ -37197,19 +37141,19 @@
         <v>61</v>
       </c>
       <c r="S54" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T54" s="28" t="s">
         <v>61</v>
       </c>
       <c r="U54" s="31" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="V54" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W54" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X54" s="28" t="s">
         <v>61</v>
@@ -37225,54 +37169,54 @@
       </c>
       <c r="AB54" s="28"/>
     </row>
-    <row r="55" spans="1:28" s="105" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A55" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="B55" s="107" t="s">
-        <v>428</v>
-      </c>
-      <c r="C55" s="106" t="s">
-        <v>427</v>
+    <row r="55" spans="1:28" s="71" customFormat="1" ht="41.45" customHeight="1">
+      <c r="A55" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" s="115" t="s">
+        <v>412</v>
+      </c>
+      <c r="C55" s="72" t="s">
+        <v>411</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="E55" s="108" t="s">
-        <v>430</v>
+        <v>413</v>
+      </c>
+      <c r="E55" s="73" t="s">
+        <v>414</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="H55" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="I55" s="109" t="s">
+        <v>415</v>
+      </c>
+      <c r="H55" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="I55" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="J55" s="106" t="s">
+      <c r="J55" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K55" s="106" t="s">
+      <c r="K55" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="L55" s="106" t="s">
+      <c r="L55" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="M55" s="106" t="s">
+      <c r="M55" s="72" t="s">
         <v>61</v>
       </c>
       <c r="N55" s="34" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="P55" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q55" s="34" t="s">
         <v>61</v>
@@ -37281,25 +37225,25 @@
         <v>61</v>
       </c>
       <c r="S55" s="34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T55" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U55" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V55" s="34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W55" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X55" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Y55" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z55" s="34" t="s">
         <v>61</v>
@@ -37309,52 +37253,52 @@
       </c>
       <c r="AB55" s="34"/>
     </row>
-    <row r="56" spans="1:28" s="105" customFormat="1" ht="40.799999999999997" customHeight="1">
-      <c r="A56" s="106" t="s">
-        <v>427</v>
+    <row r="56" spans="1:28" s="71" customFormat="1" ht="40.9" customHeight="1">
+      <c r="A56" s="72" t="s">
+        <v>411</v>
       </c>
       <c r="B56" s="110"/>
-      <c r="C56" s="106" t="s">
-        <v>427</v>
+      <c r="C56" s="72" t="s">
+        <v>411</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="E56" s="108" t="s">
-        <v>430</v>
+        <v>418</v>
+      </c>
+      <c r="E56" s="73" t="s">
+        <v>414</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="H56" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="I56" s="109" t="s">
+        <v>420</v>
+      </c>
+      <c r="H56" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="I56" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="J56" s="106" t="s">
+      <c r="J56" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="106" t="s">
+      <c r="K56" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="L56" s="106" t="s">
+      <c r="L56" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="M56" s="106" t="s">
+      <c r="M56" s="72" t="s">
         <v>61</v>
       </c>
       <c r="N56" s="34" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q56" s="34" t="s">
         <v>61</v>
@@ -37363,25 +37307,25 @@
         <v>61</v>
       </c>
       <c r="S56" s="34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T56" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U56" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V56" s="34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W56" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X56" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Y56" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z56" s="34" t="s">
         <v>61</v>
@@ -37391,52 +37335,52 @@
       </c>
       <c r="AB56" s="34"/>
     </row>
-    <row r="57" spans="1:28" s="105" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A57" s="106" t="s">
-        <v>400</v>
+    <row r="57" spans="1:28" s="71" customFormat="1" ht="41.45" customHeight="1">
+      <c r="A57" s="72" t="s">
+        <v>384</v>
       </c>
       <c r="B57" s="111"/>
-      <c r="C57" s="106" t="s">
-        <v>427</v>
+      <c r="C57" s="72" t="s">
+        <v>411</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="E57" s="108" t="s">
-        <v>430</v>
+        <v>422</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>414</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="G57" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="H57" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="I57" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="M57" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="N57" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="H57" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="I57" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="L57" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="M57" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="N57" s="34" t="s">
-        <v>440</v>
-      </c>
       <c r="O57" s="34" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="P57" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q57" s="34" t="s">
         <v>61</v>
@@ -37445,25 +37389,25 @@
         <v>61</v>
       </c>
       <c r="S57" s="34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T57" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U57" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V57" s="34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W57" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X57" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Y57" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z57" s="34" t="s">
         <v>61</v>
@@ -37473,277 +37417,277 @@
       </c>
       <c r="AB57" s="34"/>
     </row>
-    <row r="58" spans="1:28" s="105" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A58" s="112" t="s">
+    <row r="58" spans="1:28" s="71" customFormat="1" ht="41.45" customHeight="1">
+      <c r="A58" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="C58" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="D58" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="E58" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="B58" s="113" t="s">
+      <c r="F58" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="H58" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="I58" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="J58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="L58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="M58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="N58" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="O58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="R58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="S58" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="T58" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="U58" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="V58" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="W58" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="X58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA58" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB58" s="75"/>
+    </row>
+    <row r="59" spans="1:28" s="71" customFormat="1" ht="35.450000000000003" customHeight="1">
+      <c r="A59" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B59" s="117"/>
+      <c r="C59" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="E59" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="G59" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="H59" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="L59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="M59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="N59" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="O59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" s="75"/>
+      <c r="Q59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="R59" s="75"/>
+      <c r="S59" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="T59" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="U59" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="V59" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="W59" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="X59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB59" s="75"/>
+    </row>
+    <row r="60" spans="1:28" s="71" customFormat="1" ht="31.15" customHeight="1">
+      <c r="A60" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B60" s="118"/>
+      <c r="C60" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="D60" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="E60" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>439</v>
+      </c>
+      <c r="G60" s="75" t="s">
+        <v>440</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="I60" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="M60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="N60" s="75" t="s">
         <v>441</v>
       </c>
-      <c r="C58" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="D58" s="114" t="s">
+      <c r="O60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="R60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="S60" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="T60" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="U60" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="V60" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="E58" s="115" t="s">
+      <c r="W60" s="75" t="s">
         <v>443</v>
       </c>
-      <c r="F58" s="116" t="s">
+      <c r="X60" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y60" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA60" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB60" s="75"/>
+    </row>
+    <row r="61" spans="1:28" s="71" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A61" s="112" t="s">
         <v>444</v>
       </c>
-      <c r="G58" s="112" t="s">
+      <c r="B61" s="112" t="s">
         <v>445</v>
       </c>
-      <c r="H58" s="112" t="s">
-        <v>184</v>
-      </c>
-      <c r="I58" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="J58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="K58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="L58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="M58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="N58" s="112" t="s">
+      <c r="C61" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="O58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="P58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="R58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="S58" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="T58" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="U58" s="112" t="s">
+      <c r="D61" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="V58" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="W58" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="X58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA58" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB58" s="112"/>
-    </row>
-    <row r="59" spans="1:28" s="105" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A59" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="D59" s="114" t="s">
+      <c r="E61" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="E59" s="115" t="s">
-        <v>443</v>
-      </c>
-      <c r="F59" s="116" t="s">
+      <c r="F61" s="68" t="s">
         <v>449</v>
       </c>
-      <c r="G59" s="112" t="s">
+      <c r="G61" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="H61" s="65" t="s">
         <v>450</v>
       </c>
-      <c r="H59" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="I59" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="J59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="K59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="L59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="M59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="N59" s="112" t="s">
+      <c r="I61" s="65" t="s">
         <v>451</v>
-      </c>
-      <c r="O59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="R59" s="112"/>
-      <c r="S59" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="T59" s="116" t="s">
-        <v>452</v>
-      </c>
-      <c r="U59" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="V59" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="W59" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="X59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA59" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB59" s="112"/>
-    </row>
-    <row r="60" spans="1:28" s="105" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A60" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="B60" s="118"/>
-      <c r="C60" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="D60" s="114" t="s">
-        <v>454</v>
-      </c>
-      <c r="E60" s="115" t="s">
-        <v>443</v>
-      </c>
-      <c r="F60" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="G60" s="112" t="s">
-        <v>456</v>
-      </c>
-      <c r="H60" s="116" t="s">
-        <v>452</v>
-      </c>
-      <c r="I60" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="J60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="K60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="L60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="M60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="N60" s="112" t="s">
-        <v>457</v>
-      </c>
-      <c r="O60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="P60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="R60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="S60" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="T60" s="112" t="s">
-        <v>184</v>
-      </c>
-      <c r="U60" s="112" t="s">
-        <v>131</v>
-      </c>
-      <c r="V60" s="112" t="s">
-        <v>458</v>
-      </c>
-      <c r="W60" s="112" t="s">
-        <v>459</v>
-      </c>
-      <c r="X60" s="112" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y60" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA60" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB60" s="112"/>
-    </row>
-    <row r="61" spans="1:28" s="105" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A61" s="98" t="s">
-        <v>460</v>
-      </c>
-      <c r="B61" s="98" t="s">
-        <v>461</v>
-      </c>
-      <c r="C61" s="119" t="s">
-        <v>462</v>
-      </c>
-      <c r="D61" s="66" t="s">
-        <v>463</v>
-      </c>
-      <c r="E61" s="120" t="s">
-        <v>464</v>
-      </c>
-      <c r="F61" s="68" t="s">
-        <v>465</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="H61" s="65" t="s">
-        <v>466</v>
-      </c>
-      <c r="I61" s="65" t="s">
-        <v>467</v>
       </c>
       <c r="J61" s="65" t="s">
         <v>61</v>
@@ -37758,13 +37702,13 @@
         <v>61</v>
       </c>
       <c r="N61" s="65" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="O61" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="P61" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Q61" s="65" t="s">
         <v>61</v>
@@ -37773,25 +37717,25 @@
         <v>61</v>
       </c>
       <c r="S61" s="65" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="T61" s="65" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="U61" s="65" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="V61" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W61" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X61" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Y61" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Z61" s="65" t="s">
         <v>61</v>
@@ -37801,29 +37745,29 @@
       </c>
       <c r="AB61" s="65"/>
     </row>
-    <row r="62" spans="1:28" s="105" customFormat="1" ht="69" customHeight="1">
-      <c r="A62" s="99"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="119" t="s">
-        <v>472</v>
+    <row r="62" spans="1:28" s="71" customFormat="1" ht="69" customHeight="1">
+      <c r="A62" s="113"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="79" t="s">
+        <v>456</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>473</v>
-      </c>
-      <c r="E62" s="120" t="s">
-        <v>464</v>
+        <v>457</v>
+      </c>
+      <c r="E62" s="80" t="s">
+        <v>448</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="G62" s="65" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="H62" s="65" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="I62" s="65" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="J62" s="65" t="s">
         <v>61</v>
@@ -37838,13 +37782,13 @@
         <v>61</v>
       </c>
       <c r="N62" s="68" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="O62" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="P62" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Q62" s="65" t="s">
         <v>61</v>
@@ -37853,25 +37797,25 @@
         <v>61</v>
       </c>
       <c r="S62" s="65" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="T62" s="65" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="U62" s="65" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="V62" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W62" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X62" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Y62" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Z62" s="65" t="s">
         <v>61</v>
@@ -37881,29 +37825,29 @@
       </c>
       <c r="AB62" s="65"/>
     </row>
-    <row r="63" spans="1:28" s="105" customFormat="1" ht="54" customHeight="1">
-      <c r="A63" s="99"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="119" t="s">
-        <v>477</v>
+    <row r="63" spans="1:28" s="71" customFormat="1" ht="54" customHeight="1">
+      <c r="A63" s="113"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="79" t="s">
+        <v>461</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>478</v>
-      </c>
-      <c r="E63" s="120" t="s">
+        <v>462</v>
+      </c>
+      <c r="E63" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="F63" s="68" t="s">
+        <v>463</v>
+      </c>
+      <c r="G63" s="65" t="s">
         <v>464</v>
       </c>
-      <c r="F63" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="G63" s="65" t="s">
-        <v>480</v>
-      </c>
       <c r="H63" s="65" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="I63" s="65" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="J63" s="65" t="s">
         <v>61</v>
@@ -37918,13 +37862,13 @@
         <v>61</v>
       </c>
       <c r="N63" s="65" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="O63" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="P63" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Q63" s="65" t="s">
         <v>61</v>
@@ -37933,57 +37877,57 @@
         <v>61</v>
       </c>
       <c r="S63" s="68" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="T63" s="65" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="U63" s="65" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="V63" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W63" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X63" s="65" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Y63" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Z63" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="AA63" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="AB63" s="65"/>
     </row>
-    <row r="64" spans="1:28" s="105" customFormat="1" ht="50.4" customHeight="1">
-      <c r="A64" s="99"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="119" t="s">
-        <v>487</v>
+    <row r="64" spans="1:28" s="71" customFormat="1" ht="50.45" customHeight="1">
+      <c r="A64" s="113"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="79" t="s">
+        <v>471</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>488</v>
-      </c>
-      <c r="E64" s="120" t="s">
-        <v>464</v>
+        <v>472</v>
+      </c>
+      <c r="E64" s="80" t="s">
+        <v>448</v>
       </c>
       <c r="F64" s="68" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G64" s="65" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="H64" s="65" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="I64" s="65" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="J64" s="65" t="s">
         <v>61</v>
@@ -37998,13 +37942,13 @@
         <v>61</v>
       </c>
       <c r="N64" s="65" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O64" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="P64" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Q64" s="65" t="s">
         <v>61</v>
@@ -38013,25 +37957,25 @@
         <v>61</v>
       </c>
       <c r="S64" s="65" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="T64" s="65" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="U64" s="65" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="V64" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W64" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X64" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Y64" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Z64" s="65" t="s">
         <v>61</v>
@@ -38041,29 +37985,29 @@
       </c>
       <c r="AB64" s="65"/>
     </row>
-    <row r="65" spans="1:28" s="105" customFormat="1" ht="50.4" customHeight="1">
-      <c r="A65" s="99"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="119" t="s">
-        <v>495</v>
+    <row r="65" spans="1:28" s="71" customFormat="1" ht="50.45" customHeight="1">
+      <c r="A65" s="113"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="79" t="s">
+        <v>479</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>496</v>
-      </c>
-      <c r="E65" s="120" t="s">
-        <v>464</v>
+        <v>480</v>
+      </c>
+      <c r="E65" s="80" t="s">
+        <v>448</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G65" s="65" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="H65" s="65" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="I65" s="65" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="J65" s="65" t="s">
         <v>61</v>
@@ -38078,13 +38022,13 @@
         <v>61</v>
       </c>
       <c r="N65" s="65" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="O65" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="P65" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Q65" s="65" t="s">
         <v>61</v>
@@ -38093,25 +38037,25 @@
         <v>61</v>
       </c>
       <c r="S65" s="65" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="T65" s="65" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="U65" s="65" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="V65" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W65" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X65" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Y65" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Z65" s="65" t="s">
         <v>61</v>
@@ -38121,29 +38065,29 @@
       </c>
       <c r="AB65" s="65"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" ht="50.4" customHeight="1">
-      <c r="A66" s="100"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="119" t="s">
-        <v>501</v>
+    <row r="66" spans="1:28" s="71" customFormat="1" ht="50.45" customHeight="1">
+      <c r="A66" s="114"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="79" t="s">
+        <v>485</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="E66" s="120" t="s">
-        <v>464</v>
+        <v>486</v>
+      </c>
+      <c r="E66" s="80" t="s">
+        <v>448</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="G66" s="65" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="H66" s="65" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="I66" s="65" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="J66" s="65" t="s">
         <v>61</v>
@@ -38158,13 +38102,13 @@
         <v>61</v>
       </c>
       <c r="N66" s="65" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="O66" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="P66" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Q66" s="65" t="s">
         <v>61</v>
@@ -38173,25 +38117,25 @@
         <v>61</v>
       </c>
       <c r="S66" s="65" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="T66" s="65" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="U66" s="65" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="V66" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W66" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X66" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Y66" s="65" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Z66" s="65" t="s">
         <v>61</v>
@@ -38201,361 +38145,361 @@
       </c>
       <c r="AB66" s="65"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A67" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="B67" s="121" t="s">
-        <v>473</v>
-      </c>
-      <c r="C67" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="D67" s="122" t="s">
+    <row r="67" spans="1:28" s="71" customFormat="1" ht="46.9" customHeight="1">
+      <c r="A67" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="B67" s="109" t="s">
+        <v>457</v>
+      </c>
+      <c r="C67" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" s="81" t="s">
+        <v>490</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="F67" s="82" t="s">
+        <v>491</v>
+      </c>
+      <c r="G67" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="H67" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="I67" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="J67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="L67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="M67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="N67" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="O67" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="P67" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q67" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="R67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="S67" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="T67" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="U67" s="81" t="s">
+        <v>494</v>
+      </c>
+      <c r="V67" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="W67" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="X67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA67" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB67" s="72"/>
+    </row>
+    <row r="68" spans="1:28" s="71" customFormat="1" ht="46.9" customHeight="1">
+      <c r="A68" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" s="110"/>
+      <c r="C68" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="D68" s="81" t="s">
+        <v>495</v>
+      </c>
+      <c r="E68" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="F68" s="82" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" s="72" t="s">
+        <v>497</v>
+      </c>
+      <c r="H68" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="I68" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="J68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="L68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="M68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="N68" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="O68" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="P68" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q68" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="R68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="S68" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="T68" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="U68" s="81" t="s">
+        <v>498</v>
+      </c>
+      <c r="V68" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="W68" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="X68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB68" s="72"/>
+    </row>
+    <row r="69" spans="1:28" s="71" customFormat="1" ht="46.9" customHeight="1">
+      <c r="A69" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="B69" s="110"/>
+      <c r="C69" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="D69" s="81" t="s">
+        <v>499</v>
+      </c>
+      <c r="E69" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="F69" s="82" t="s">
+        <v>500</v>
+      </c>
+      <c r="G69" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="H69" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="I69" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="J69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="M69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="N69" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="O69" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="P69" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q69" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="R69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="S69" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="T69" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="U69" s="81" t="s">
+        <v>502</v>
+      </c>
+      <c r="V69" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="W69" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="X69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB69" s="72"/>
+    </row>
+    <row r="70" spans="1:28" s="71" customFormat="1" ht="46.9" customHeight="1">
+      <c r="A70" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="B70" s="110"/>
+      <c r="C70" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="D70" s="81" t="s">
+        <v>503</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="F70" s="82" t="s">
+        <v>504</v>
+      </c>
+      <c r="G70" s="72" t="s">
+        <v>505</v>
+      </c>
+      <c r="H70" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="I70" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="J70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="M70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="N70" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="O70" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="P70" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q70" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="R70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="S70" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="T70" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="U70" s="81" t="s">
         <v>506</v>
       </c>
-      <c r="E67" s="108" t="s">
-        <v>430</v>
-      </c>
-      <c r="F67" s="123" t="s">
+      <c r="V70" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="W70" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="X70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA70" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB70" s="72"/>
+    </row>
+    <row r="71" spans="1:28" s="71" customFormat="1" ht="46.9" customHeight="1">
+      <c r="A71" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="B71" s="111"/>
+      <c r="C71" s="79" t="s">
         <v>507</v>
       </c>
-      <c r="G67" s="106" t="s">
-        <v>474</v>
-      </c>
-      <c r="H67" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="I67" s="106" t="s">
-        <v>467</v>
-      </c>
-      <c r="J67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="L67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="M67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="N67" s="106" t="s">
+      <c r="D71" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="O67" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="P67" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q67" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="R67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="S67" s="106" t="s">
+      <c r="E71" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="F71" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="T67" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="U67" s="122" t="s">
+      <c r="G71" s="65" t="s">
         <v>510</v>
       </c>
-      <c r="V67" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="W67" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="X67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA67" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB67" s="106"/>
-    </row>
-    <row r="68" spans="1:28" s="105" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A68" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="B68" s="110"/>
-      <c r="C68" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="D68" s="122" t="s">
-        <v>511</v>
-      </c>
-      <c r="E68" s="108" t="s">
-        <v>430</v>
-      </c>
-      <c r="F68" s="123" t="s">
-        <v>512</v>
-      </c>
-      <c r="G68" s="106" t="s">
-        <v>513</v>
-      </c>
-      <c r="H68" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="I68" s="106" t="s">
-        <v>467</v>
-      </c>
-      <c r="J68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="K68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="L68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="M68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="N68" s="106" t="s">
-        <v>508</v>
-      </c>
-      <c r="O68" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="P68" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q68" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="R68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="S68" s="106" t="s">
-        <v>509</v>
-      </c>
-      <c r="T68" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="U68" s="122" t="s">
-        <v>514</v>
-      </c>
-      <c r="V68" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="W68" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="X68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA68" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB68" s="106"/>
-    </row>
-    <row r="69" spans="1:28" s="105" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A69" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="B69" s="110"/>
-      <c r="C69" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="D69" s="122" t="s">
-        <v>515</v>
-      </c>
-      <c r="E69" s="108" t="s">
-        <v>430</v>
-      </c>
-      <c r="F69" s="123" t="s">
-        <v>516</v>
-      </c>
-      <c r="G69" s="106" t="s">
-        <v>517</v>
-      </c>
-      <c r="H69" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="I69" s="106" t="s">
-        <v>467</v>
-      </c>
-      <c r="J69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="K69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="L69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="M69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="N69" s="106" t="s">
-        <v>508</v>
-      </c>
-      <c r="O69" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="P69" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q69" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="R69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="S69" s="106" t="s">
-        <v>509</v>
-      </c>
-      <c r="T69" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="U69" s="122" t="s">
-        <v>518</v>
-      </c>
-      <c r="V69" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="W69" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="X69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA69" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB69" s="106"/>
-    </row>
-    <row r="70" spans="1:28" s="105" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A70" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="B70" s="110"/>
-      <c r="C70" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="D70" s="122" t="s">
-        <v>519</v>
-      </c>
-      <c r="E70" s="108" t="s">
-        <v>430</v>
-      </c>
-      <c r="F70" s="123" t="s">
-        <v>520</v>
-      </c>
-      <c r="G70" s="106" t="s">
-        <v>521</v>
-      </c>
-      <c r="H70" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="I70" s="106" t="s">
-        <v>343</v>
-      </c>
-      <c r="J70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="K70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="L70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="M70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="N70" s="106" t="s">
-        <v>508</v>
-      </c>
-      <c r="O70" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="P70" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q70" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="R70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="S70" s="106" t="s">
-        <v>509</v>
-      </c>
-      <c r="T70" s="106" t="s">
-        <v>466</v>
-      </c>
-      <c r="U70" s="122" t="s">
-        <v>522</v>
-      </c>
-      <c r="V70" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="W70" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="X70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA70" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB70" s="106"/>
-    </row>
-    <row r="71" spans="1:28" s="105" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A71" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="B71" s="111"/>
-      <c r="C71" s="119" t="s">
-        <v>523</v>
-      </c>
-      <c r="D71" s="66" t="s">
-        <v>524</v>
-      </c>
-      <c r="E71" s="120" t="s">
-        <v>464</v>
-      </c>
-      <c r="F71" s="68" t="s">
-        <v>525</v>
-      </c>
-      <c r="G71" s="65" t="s">
-        <v>526</v>
-      </c>
       <c r="H71" s="65" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="I71" s="65" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="J71" s="65" t="s">
         <v>61</v>
@@ -38570,7 +38514,7 @@
         <v>61</v>
       </c>
       <c r="N71" s="65" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="O71" s="65" t="s">
         <v>61</v>
@@ -38585,19 +38529,19 @@
         <v>61</v>
       </c>
       <c r="S71" s="65" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="T71" s="65" t="s">
-        <v>466</v>
-      </c>
-      <c r="U71" s="119" t="s">
-        <v>528</v>
+        <v>450</v>
+      </c>
+      <c r="U71" s="79" t="s">
+        <v>512</v>
       </c>
       <c r="V71" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W71" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X71" s="65" t="s">
         <v>61</v>
@@ -66183,7 +66127,7 @@
       <c r="AA990" s="57"/>
       <c r="AB990" s="60"/>
     </row>
-    <row r="991" spans="1:28" ht="17.399999999999999">
+    <row r="991" spans="1:28" ht="16.5">
       <c r="A991" s="57"/>
       <c r="B991" s="57"/>
       <c r="C991" s="58"/>
@@ -66213,7 +66157,7 @@
       <c r="AA991" s="57"/>
       <c r="AB991" s="60"/>
     </row>
-    <row r="992" spans="1:28" ht="17.399999999999999">
+    <row r="992" spans="1:28" ht="16.5">
       <c r="A992" s="57"/>
       <c r="B992" s="57"/>
       <c r="C992" s="58"/>
@@ -66243,7 +66187,7 @@
       <c r="AA992" s="57"/>
       <c r="AB992" s="60"/>
     </row>
-    <row r="993" spans="1:28" ht="17.399999999999999">
+    <row r="993" spans="1:28" ht="16.5">
       <c r="A993" s="57"/>
       <c r="B993" s="57"/>
       <c r="C993" s="58"/>
@@ -66515,6 +66459,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A22:A28"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="A49:A54"/>
     <mergeCell ref="B49:B54"/>
@@ -66522,29 +66486,9 @@
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="B61:B66"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="S1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00_서류 제출/[컨텐츠]_퀘스트기획서_v0.01.xlsx
+++ b/00_서류 제출/[컨텐츠]_퀘스트기획서_v0.01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Yaho\00_서류 제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Yaho\00_서류 제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A88CA-6A29-4B66-974A-926BAC1D9A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1E642-64BE-4F6B-B66A-13A25B6D0F60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="7830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2086,7 +2086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2222,6 +2222,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2898,7 +2905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3226,41 +3233,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3269,6 +3249,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3298,20 +3293,14 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3322,9 +3311,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3333,6 +3319,39 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -33399,10 +33418,10 @@
   <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -33438,46 +33457,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="136" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="139" t="s">
+      <c r="D1" s="132"/>
+      <c r="E1" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="136" t="s">
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="136" t="s">
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="137"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="117"/>
       <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
-      <c r="AB1" s="119" t="s">
+      <c r="AB1" s="118" t="s">
         <v>46</v>
       </c>
     </row>
@@ -33494,7 +33513,7 @@
       <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="140"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="25" t="s">
         <v>58</v>
       </c>
@@ -33557,10 +33576,10 @@
       </c>
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
-      <c r="AB2" s="120"/>
+      <c r="AB2" s="119"/>
     </row>
     <row r="3" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="109" t="s">
         <v>523</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -33640,7 +33659,7 @@
       <c r="AB3" s="28"/>
     </row>
     <row r="4" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A4" s="135"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="33" t="s">
         <v>369</v>
       </c>
@@ -33688,10 +33707,10 @@
       <c r="AB4" s="28"/>
     </row>
     <row r="5" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="109" t="s">
         <v>522</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="126" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -33770,8 +33789,8 @@
       <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="1:28" ht="42" customHeight="1">
-      <c r="A6" s="134"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="28" t="s">
         <v>207</v>
       </c>
@@ -33850,8 +33869,8 @@
       <c r="AB6" s="28"/>
     </row>
     <row r="7" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A7" s="134"/>
-      <c r="B7" s="131"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="28" t="s">
         <v>208</v>
       </c>
@@ -33930,8 +33949,8 @@
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28" ht="48" customHeight="1">
-      <c r="A8" s="134"/>
-      <c r="B8" s="131"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="28" t="s">
         <v>209</v>
       </c>
@@ -34010,8 +34029,8 @@
       <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28" ht="48" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="132"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="28" t="s">
         <v>217</v>
       </c>
@@ -34058,10 +34077,10 @@
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28" ht="63.75" customHeight="1">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="120" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="123" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -34142,8 +34161,8 @@
       <c r="AB10" s="28"/>
     </row>
     <row r="11" spans="1:28" ht="48.75" customHeight="1">
-      <c r="A11" s="125"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="28" t="s">
         <v>220</v>
       </c>
@@ -34222,8 +34241,8 @@
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28" ht="45.75" customHeight="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="28" t="s">
         <v>221</v>
       </c>
@@ -34302,8 +34321,8 @@
       <c r="AB12" s="28"/>
     </row>
     <row r="13" spans="1:28" ht="43.5" customHeight="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="128"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="28" t="s">
         <v>338</v>
       </c>
@@ -34374,8 +34393,8 @@
       <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="1:28" ht="62.25" customHeight="1">
-      <c r="A14" s="125"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="28" t="s">
         <v>339</v>
       </c>
@@ -34454,8 +34473,8 @@
       <c r="AB14" s="28"/>
     </row>
     <row r="15" spans="1:28" ht="55.5" customHeight="1">
-      <c r="A15" s="125"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="28" t="s">
         <v>340</v>
       </c>
@@ -34530,8 +34549,8 @@
       <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A16" s="125"/>
-      <c r="B16" s="128"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="28" t="s">
         <v>229</v>
       </c>
@@ -34610,8 +34629,8 @@
       <c r="AB16" s="28"/>
     </row>
     <row r="17" spans="1:28" ht="36.75" customHeight="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="28" t="s">
         <v>235</v>
       </c>
@@ -34690,8 +34709,8 @@
       <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="1:28" ht="75" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="28" t="s">
         <v>236</v>
       </c>
@@ -34770,8 +34789,8 @@
       <c r="AB18" s="28"/>
     </row>
     <row r="19" spans="1:28" ht="72" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="128"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="28" t="s">
         <v>237</v>
       </c>
@@ -34818,21 +34837,21 @@
       <c r="AB19" s="28"/>
     </row>
     <row r="20" spans="1:28" ht="93" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="121"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="145" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="148" t="s">
         <v>532</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="145" t="s">
         <v>265</v>
       </c>
       <c r="H20" s="31" t="s">
@@ -34866,21 +34885,21 @@
       <c r="AB20" s="28"/>
     </row>
     <row r="21" spans="1:28" ht="85.5" customHeight="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="28" t="s">
+      <c r="A21" s="122"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="145" t="s">
         <v>239</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="148" t="s">
         <v>533</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="145" t="s">
         <v>266</v>
       </c>
       <c r="H21" s="28" t="s">
@@ -34946,10 +34965,10 @@
       <c r="AB21" s="28"/>
     </row>
     <row r="22" spans="1:28" ht="69.75" customHeight="1">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="135" t="s">
         <v>520</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="129" t="s">
         <v>240</v>
       </c>
       <c r="C22" s="64" t="s">
@@ -34996,8 +35015,8 @@
       <c r="AB22" s="65"/>
     </row>
     <row r="23" spans="1:28" ht="38.25" customHeight="1">
-      <c r="A23" s="143"/>
-      <c r="B23" s="113"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="64" t="s">
         <v>247</v>
       </c>
@@ -35074,8 +35093,8 @@
       <c r="AB23" s="65"/>
     </row>
     <row r="24" spans="1:28" ht="38.25" customHeight="1">
-      <c r="A24" s="143"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="64"/>
       <c r="D24" s="65" t="s">
         <v>535</v>
@@ -35108,8 +35127,8 @@
       <c r="AB24" s="65"/>
     </row>
     <row r="25" spans="1:28" ht="90.75" customHeight="1">
-      <c r="A25" s="143"/>
-      <c r="B25" s="113"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="64" t="s">
         <v>248</v>
       </c>
@@ -35186,8 +35205,8 @@
       <c r="AB25" s="65"/>
     </row>
     <row r="26" spans="1:28" ht="93.75" customHeight="1">
-      <c r="A26" s="143"/>
-      <c r="B26" s="113"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="64" t="s">
         <v>249</v>
       </c>
@@ -35264,8 +35283,8 @@
       <c r="AB26" s="65"/>
     </row>
     <row r="27" spans="1:28" ht="71.25" customHeight="1">
-      <c r="A27" s="143"/>
-      <c r="B27" s="113"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="64" t="s">
         <v>250</v>
       </c>
@@ -35310,8 +35329,8 @@
       <c r="AB27" s="65"/>
     </row>
     <row r="28" spans="1:28" ht="71.25" customHeight="1">
-      <c r="A28" s="144"/>
-      <c r="B28" s="114"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="64" t="s">
         <v>251</v>
       </c>
@@ -35582,10 +35601,10 @@
       <c r="AB32" s="37"/>
     </row>
     <row r="33" spans="1:28" ht="42.75" customHeight="1">
-      <c r="A33" s="133" t="s">
+      <c r="A33" s="109" t="s">
         <v>519</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="123" t="s">
         <v>156</v>
       </c>
       <c r="C33" s="28" t="s">
@@ -35664,8 +35683,8 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="1:28" ht="52.5" customHeight="1">
-      <c r="A34" s="134"/>
-      <c r="B34" s="128"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="28" t="s">
         <v>275</v>
       </c>
@@ -35742,8 +35761,8 @@
       <c r="AB34" s="28"/>
     </row>
     <row r="35" spans="1:28" ht="58.5" customHeight="1">
-      <c r="A35" s="134"/>
-      <c r="B35" s="120"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="28" t="s">
         <v>276</v>
       </c>
@@ -35820,8 +35839,8 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="1:28" ht="73.5" customHeight="1">
-      <c r="A36" s="134"/>
-      <c r="B36" s="127" t="s">
+      <c r="A36" s="110"/>
+      <c r="B36" s="123" t="s">
         <v>283</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -35876,8 +35895,8 @@
       <c r="AB36" s="33"/>
     </row>
     <row r="37" spans="1:28" ht="68.25" customHeight="1">
-      <c r="A37" s="134"/>
-      <c r="B37" s="128"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="28" t="s">
         <v>285</v>
       </c>
@@ -35930,8 +35949,8 @@
       <c r="AB37" s="33"/>
     </row>
     <row r="38" spans="1:28" ht="66" customHeight="1">
-      <c r="A38" s="134"/>
-      <c r="B38" s="128"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="28" t="s">
         <v>286</v>
       </c>
@@ -35984,8 +36003,8 @@
       <c r="AB38" s="33"/>
     </row>
     <row r="39" spans="1:28" ht="65.25" customHeight="1">
-      <c r="A39" s="134"/>
-      <c r="B39" s="129"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="28" t="s">
         <v>287</v>
       </c>
@@ -36038,8 +36057,8 @@
       <c r="AB39" s="33"/>
     </row>
     <row r="40" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A40" s="134"/>
-      <c r="B40" s="127" t="s">
+      <c r="A40" s="110"/>
+      <c r="B40" s="123" t="s">
         <v>175</v>
       </c>
       <c r="C40" s="28" t="s">
@@ -36118,8 +36137,8 @@
       <c r="AB40" s="33"/>
     </row>
     <row r="41" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A41" s="134"/>
-      <c r="B41" s="128"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="28" t="s">
         <v>294</v>
       </c>
@@ -36164,8 +36183,8 @@
       <c r="AB41" s="33"/>
     </row>
     <row r="42" spans="1:28" ht="61.5" customHeight="1">
-      <c r="A42" s="135"/>
-      <c r="B42" s="120"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="28" t="s">
         <v>295</v>
       </c>
@@ -36370,10 +36389,10 @@
       <c r="AB44" s="83"/>
     </row>
     <row r="45" spans="1:28" ht="52.5" customHeight="1">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="112" t="s">
         <v>190</v>
       </c>
       <c r="C45" s="83" t="s">
@@ -36454,8 +36473,8 @@
       <c r="AB45" s="83"/>
     </row>
     <row r="46" spans="1:28" ht="43.5" customHeight="1">
-      <c r="A46" s="122"/>
-      <c r="B46" s="122"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="83" t="s">
         <v>515</v>
       </c>
@@ -36534,8 +36553,8 @@
       <c r="AB46" s="83"/>
     </row>
     <row r="47" spans="1:28" ht="44.25" customHeight="1">
-      <c r="A47" s="122"/>
-      <c r="B47" s="122"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="83" t="s">
         <v>516</v>
       </c>
@@ -36614,8 +36633,8 @@
       <c r="AB47" s="83"/>
     </row>
     <row r="48" spans="1:28" ht="39.6" customHeight="1">
-      <c r="A48" s="123"/>
-      <c r="B48" s="123"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="83" t="s">
         <v>517</v>
       </c>
@@ -36694,10 +36713,10 @@
       <c r="AB48" s="83"/>
     </row>
     <row r="49" spans="1:28" s="71" customFormat="1" ht="41.45" customHeight="1">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="129" t="s">
         <v>370</v>
       </c>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="129" t="s">
         <v>371</v>
       </c>
       <c r="C49" s="28" t="s">
@@ -36778,8 +36797,8 @@
       <c r="AB49" s="28"/>
     </row>
     <row r="50" spans="1:28" s="71" customFormat="1" ht="42.6" customHeight="1">
-      <c r="A50" s="113"/>
-      <c r="B50" s="113"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="130"/>
       <c r="C50" s="28" t="s">
         <v>379</v>
       </c>
@@ -36850,8 +36869,8 @@
       <c r="AB50" s="28"/>
     </row>
     <row r="51" spans="1:28" s="71" customFormat="1" ht="42.6" customHeight="1">
-      <c r="A51" s="113"/>
-      <c r="B51" s="113"/>
+      <c r="A51" s="130"/>
+      <c r="B51" s="130"/>
       <c r="C51" s="28" t="s">
         <v>387</v>
       </c>
@@ -36930,8 +36949,8 @@
       <c r="AB51" s="28"/>
     </row>
     <row r="52" spans="1:28" s="71" customFormat="1" ht="41.45" customHeight="1">
-      <c r="A52" s="113"/>
-      <c r="B52" s="113"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="130"/>
       <c r="C52" s="28" t="s">
         <v>393</v>
       </c>
@@ -37010,8 +37029,8 @@
       <c r="AB52" s="28"/>
     </row>
     <row r="53" spans="1:28" s="71" customFormat="1" ht="36.6" customHeight="1">
-      <c r="A53" s="113"/>
-      <c r="B53" s="113"/>
+      <c r="A53" s="130"/>
+      <c r="B53" s="130"/>
       <c r="C53" s="28" t="s">
         <v>399</v>
       </c>
@@ -37090,8 +37109,8 @@
       <c r="AB53" s="28"/>
     </row>
     <row r="54" spans="1:28" s="71" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="131"/>
       <c r="C54" s="28" t="s">
         <v>405</v>
       </c>
@@ -37173,7 +37192,7 @@
       <c r="A55" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="141" t="s">
         <v>412</v>
       </c>
       <c r="C55" s="72" t="s">
@@ -37257,7 +37276,7 @@
       <c r="A56" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="B56" s="110"/>
+      <c r="B56" s="139"/>
       <c r="C56" s="72" t="s">
         <v>411</v>
       </c>
@@ -37339,7 +37358,7 @@
       <c r="A57" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="111"/>
+      <c r="B57" s="140"/>
       <c r="C57" s="72" t="s">
         <v>411</v>
       </c>
@@ -37421,7 +37440,7 @@
       <c r="A58" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="B58" s="116" t="s">
+      <c r="B58" s="142" t="s">
         <v>425</v>
       </c>
       <c r="C58" s="75" t="s">
@@ -37505,7 +37524,7 @@
       <c r="A59" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="B59" s="117"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="75" t="s">
         <v>411</v>
       </c>
@@ -37583,7 +37602,7 @@
       <c r="A60" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="B60" s="118"/>
+      <c r="B60" s="144"/>
       <c r="C60" s="75" t="s">
         <v>411</v>
       </c>
@@ -37662,10 +37681,10 @@
       <c r="AB60" s="75"/>
     </row>
     <row r="61" spans="1:28" s="71" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A61" s="112" t="s">
+      <c r="A61" s="129" t="s">
         <v>444</v>
       </c>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="129" t="s">
         <v>445</v>
       </c>
       <c r="C61" s="79" t="s">
@@ -37746,8 +37765,8 @@
       <c r="AB61" s="65"/>
     </row>
     <row r="62" spans="1:28" s="71" customFormat="1" ht="69" customHeight="1">
-      <c r="A62" s="113"/>
-      <c r="B62" s="113"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="79" t="s">
         <v>456</v>
       </c>
@@ -37826,8 +37845,8 @@
       <c r="AB62" s="65"/>
     </row>
     <row r="63" spans="1:28" s="71" customFormat="1" ht="54" customHeight="1">
-      <c r="A63" s="113"/>
-      <c r="B63" s="113"/>
+      <c r="A63" s="130"/>
+      <c r="B63" s="130"/>
       <c r="C63" s="79" t="s">
         <v>461</v>
       </c>
@@ -37906,8 +37925,8 @@
       <c r="AB63" s="65"/>
     </row>
     <row r="64" spans="1:28" s="71" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A64" s="113"/>
-      <c r="B64" s="113"/>
+      <c r="A64" s="130"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="79" t="s">
         <v>471</v>
       </c>
@@ -37986,8 +38005,8 @@
       <c r="AB64" s="65"/>
     </row>
     <row r="65" spans="1:28" s="71" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A65" s="113"/>
-      <c r="B65" s="113"/>
+      <c r="A65" s="130"/>
+      <c r="B65" s="130"/>
       <c r="C65" s="79" t="s">
         <v>479</v>
       </c>
@@ -38066,8 +38085,8 @@
       <c r="AB65" s="65"/>
     </row>
     <row r="66" spans="1:28" s="71" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A66" s="114"/>
-      <c r="B66" s="114"/>
+      <c r="A66" s="131"/>
+      <c r="B66" s="131"/>
       <c r="C66" s="79" t="s">
         <v>485</v>
       </c>
@@ -38149,7 +38168,7 @@
       <c r="A67" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="B67" s="109" t="s">
+      <c r="B67" s="138" t="s">
         <v>457</v>
       </c>
       <c r="C67" s="72" t="s">
@@ -38233,7 +38252,7 @@
       <c r="A68" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="B68" s="110"/>
+      <c r="B68" s="139"/>
       <c r="C68" s="72" t="s">
         <v>411</v>
       </c>
@@ -38315,7 +38334,7 @@
       <c r="A69" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="B69" s="110"/>
+      <c r="B69" s="139"/>
       <c r="C69" s="72" t="s">
         <v>411</v>
       </c>
@@ -38397,7 +38416,7 @@
       <c r="A70" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="B70" s="110"/>
+      <c r="B70" s="139"/>
       <c r="C70" s="72" t="s">
         <v>411</v>
       </c>
@@ -38479,7 +38498,7 @@
       <c r="A71" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="B71" s="111"/>
+      <c r="B71" s="140"/>
       <c r="C71" s="79" t="s">
         <v>507</v>
       </c>
@@ -66459,6 +66478,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B45:B48"/>
@@ -66475,17 +66505,6 @@
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
